--- a/raw_data/20200818_saline/20200818_Sensor3_Test_29.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_29.xlsx
@@ -1,993 +1,1409 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482715BB-570F-4230-8702-004A6B26D265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>25756.748177</v>
+        <v>25756.748177000001</v>
       </c>
       <c r="B2" s="1">
-        <v>7.154652</v>
+        <v>7.1546519999999996</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.270000</v>
+        <v>1144.27</v>
       </c>
       <c r="D2" s="1">
-        <v>-261.258000</v>
+        <v>-261.25799999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>25767.142339</v>
+        <v>25767.142339000002</v>
       </c>
       <c r="G2" s="1">
-        <v>7.157540</v>
+        <v>7.15754</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.280000</v>
+        <v>1165.28</v>
       </c>
       <c r="I2" s="1">
-        <v>-219.041000</v>
+        <v>-219.041</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>25778.219856</v>
       </c>
       <c r="L2" s="1">
-        <v>7.160617</v>
+        <v>7.1606170000000002</v>
       </c>
       <c r="M2" s="1">
-        <v>1193.290000</v>
+        <v>1193.29</v>
       </c>
       <c r="N2" s="1">
-        <v>-151.580000</v>
+        <v>-151.58000000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>25788.708418</v>
+        <v>25788.708417999998</v>
       </c>
       <c r="Q2" s="1">
-        <v>7.163530</v>
+        <v>7.1635299999999997</v>
       </c>
       <c r="R2" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="S2" s="1">
-        <v>-129.123000</v>
+        <v>-129.12299999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>25798.397738</v>
       </c>
       <c r="V2" s="1">
-        <v>7.166222</v>
+        <v>7.1662220000000003</v>
       </c>
       <c r="W2" s="1">
-        <v>1208.190000</v>
+        <v>1208.19</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.831000</v>
+        <v>-107.831</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>25808.559314</v>
+        <v>25808.559313999998</v>
       </c>
       <c r="AA2" s="1">
-        <v>7.169044</v>
+        <v>7.1690440000000004</v>
       </c>
       <c r="AB2" s="1">
-        <v>1215.670000</v>
+        <v>1215.67</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.625800</v>
+        <v>-90.625799999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>25818.783839</v>
       </c>
       <c r="AF2" s="1">
-        <v>7.171884</v>
+        <v>7.1718840000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.527700</v>
+        <v>-85.527699999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>25828.887810</v>
+        <v>25828.88781</v>
       </c>
       <c r="AK2" s="1">
-        <v>7.174691</v>
+        <v>7.1746910000000002</v>
       </c>
       <c r="AL2" s="1">
-        <v>1226.830000</v>
+        <v>1226.83</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.538700</v>
+        <v>-88.538700000000006</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>25839.482356</v>
       </c>
       <c r="AP2" s="1">
-        <v>7.177634</v>
+        <v>7.1776340000000003</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.153000</v>
+        <v>-100.15300000000001</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>25850.820902</v>
+        <v>25850.820901999999</v>
       </c>
       <c r="AU2" s="1">
-        <v>7.180784</v>
+        <v>7.1807840000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW2" s="1">
-        <v>-119.119000</v>
+        <v>-119.119</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>25861.959558</v>
+        <v>25861.959557999999</v>
       </c>
       <c r="AZ2" s="1">
         <v>7.183878</v>
       </c>
       <c r="BA2" s="1">
-        <v>1252.650000</v>
+        <v>1252.6500000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-136.268000</v>
+        <v>-136.268</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>25872.949417</v>
       </c>
       <c r="BE2" s="1">
-        <v>7.186930</v>
+        <v>7.1869300000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG2" s="1">
-        <v>-217.009000</v>
+        <v>-217.00899999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>25884.160985</v>
+        <v>25884.160984999999</v>
       </c>
       <c r="BJ2" s="1">
-        <v>7.190045</v>
+        <v>7.1900449999999996</v>
       </c>
       <c r="BK2" s="1">
-        <v>1360.530000</v>
+        <v>1360.53</v>
       </c>
       <c r="BL2" s="1">
-        <v>-351.451000</v>
+        <v>-351.45100000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>25895.216347</v>
+        <v>25895.216347000001</v>
       </c>
       <c r="BO2" s="1">
-        <v>7.193116</v>
+        <v>7.1931159999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-570.531000</v>
+        <v>-570.53099999999995</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>25905.966108</v>
+        <v>25905.966108000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>7.196102</v>
+        <v>7.1961019999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1601.730000</v>
+        <v>1601.73</v>
       </c>
       <c r="BV2" s="1">
-        <v>-818.256000</v>
+        <v>-818.25599999999997</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>25916.646462</v>
+        <v>25916.646462000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>7.199068</v>
+        <v>7.1990679999999996</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1751.660000</v>
+        <v>1751.66</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1088.120000</v>
+        <v>-1088.1199999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>25927.894240</v>
+        <v>25927.894240000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>7.202193</v>
+        <v>7.2021930000000003</v>
       </c>
       <c r="CE2" s="1">
-        <v>2162.740000</v>
+        <v>2162.7399999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1744.860000</v>
+        <v>-1744.86</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>25757.417777</v>
+        <v>25757.417776999999</v>
       </c>
       <c r="B3" s="1">
-        <v>7.154838</v>
+        <v>7.1548379999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>1143.330000</v>
+        <v>1143.33</v>
       </c>
       <c r="D3" s="1">
-        <v>-261.483000</v>
+        <v>-261.483</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>25767.788659</v>
+        <v>25767.788659000002</v>
       </c>
       <c r="G3" s="1">
-        <v>7.157719</v>
+        <v>7.1577190000000002</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.510000</v>
+        <v>1165.51</v>
       </c>
       <c r="I3" s="1">
-        <v>-218.784000</v>
+        <v>-218.78399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>25778.641093</v>
+        <v>25778.641092999998</v>
       </c>
       <c r="L3" s="1">
-        <v>7.160734</v>
+        <v>7.1607339999999997</v>
       </c>
       <c r="M3" s="1">
-        <v>1193.130000</v>
+        <v>1193.1300000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-151.689000</v>
+        <v>-151.68899999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>25788.817543</v>
+        <v>25788.817543000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>7.163560</v>
+        <v>7.1635600000000004</v>
       </c>
       <c r="R3" s="1">
-        <v>1200.970000</v>
+        <v>1200.97</v>
       </c>
       <c r="S3" s="1">
-        <v>-129.068000</v>
+        <v>-129.06800000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>25798.741962</v>
       </c>
       <c r="V3" s="1">
-        <v>7.166317</v>
+        <v>7.1663170000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>1208.130000</v>
+        <v>1208.1300000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.832000</v>
+        <v>-107.83199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>25808.912430</v>
+        <v>25808.91243</v>
       </c>
       <c r="AA3" s="1">
-        <v>7.169142</v>
+        <v>7.1691419999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1215.400000</v>
+        <v>1215.4000000000001</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.337800</v>
+        <v>-90.337800000000001</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>25819.163280</v>
+        <v>25819.163280000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>7.171990</v>
+        <v>7.1719900000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.558000</v>
+        <v>-85.558000000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>25829.306433</v>
+        <v>25829.306433000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>7.174807</v>
+        <v>7.1748070000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.568000</v>
+        <v>-88.567999999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>25839.904451</v>
+        <v>25839.904450999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>7.177751</v>
+        <v>7.1777509999999998</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1234.570000</v>
+        <v>1234.57</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.156000</v>
+        <v>-100.15600000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>25851.256388</v>
+        <v>25851.256388000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>7.180905</v>
+        <v>7.1809050000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW3" s="1">
-        <v>-119.090000</v>
+        <v>-119.09</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>25862.379174</v>
+        <v>25862.379174000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>7.183994</v>
+        <v>7.1839940000000002</v>
       </c>
       <c r="BA3" s="1">
-        <v>1252.670000</v>
+        <v>1252.67</v>
       </c>
       <c r="BB3" s="1">
-        <v>-136.289000</v>
+        <v>-136.28899999999999</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>25873.311353</v>
+        <v>25873.311353000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>7.187031</v>
+        <v>7.1870310000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-216.985000</v>
+        <v>-216.98500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>25884.537979</v>
+        <v>25884.537979000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>7.190149</v>
+        <v>7.1901489999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1360.570000</v>
+        <v>1360.57</v>
       </c>
       <c r="BL3" s="1">
-        <v>-351.456000</v>
+        <v>-351.45600000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>25895.631993</v>
+        <v>25895.631992999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>7.193231</v>
+        <v>7.1932309999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1472.790000</v>
+        <v>1472.79</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-570.563000</v>
+        <v>-570.56299999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>25906.402587</v>
       </c>
       <c r="BT3" s="1">
-        <v>7.196223</v>
+        <v>7.1962229999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1601.750000</v>
+        <v>1601.75</v>
       </c>
       <c r="BV3" s="1">
-        <v>-818.300000</v>
+        <v>-818.3</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>25917.108742</v>
       </c>
       <c r="BY3" s="1">
-        <v>7.199197</v>
+        <v>7.1991969999999998</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1751.620000</v>
+        <v>1751.62</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1088.030000</v>
+        <v>-1088.03</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>25928.430415</v>
+        <v>25928.430414999999</v>
       </c>
       <c r="CD3" s="1">
-        <v>7.202342</v>
+        <v>7.2023419999999998</v>
       </c>
       <c r="CE3" s="1">
-        <v>2161.500000</v>
+        <v>2161.5</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1743.800000</v>
+        <v>-1743.8</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>25757.788289</v>
       </c>
@@ -995,73 +1411,73 @@
         <v>7.154941</v>
       </c>
       <c r="C4" s="1">
-        <v>1143.710000</v>
+        <v>1143.71</v>
       </c>
       <c r="D4" s="1">
-        <v>-261.258000</v>
+        <v>-261.25799999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>25768.174514</v>
+        <v>25768.174513999998</v>
       </c>
       <c r="G4" s="1">
         <v>7.157826</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.660000</v>
+        <v>1165.6600000000001</v>
       </c>
       <c r="I4" s="1">
-        <v>-219.143000</v>
+        <v>-219.143</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>25778.988292</v>
+        <v>25778.988292000002</v>
       </c>
       <c r="L4" s="1">
-        <v>7.160830</v>
+        <v>7.1608299999999998</v>
       </c>
       <c r="M4" s="1">
-        <v>1193.380000</v>
+        <v>1193.3800000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-151.510000</v>
+        <v>-151.51</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>25789.158264</v>
+        <v>25789.158264000002</v>
       </c>
       <c r="Q4" s="1">
-        <v>7.163655</v>
+        <v>7.1636550000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="S4" s="1">
-        <v>-129.146000</v>
+        <v>-129.14599999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>25799.085690</v>
+        <v>25799.08569</v>
       </c>
       <c r="V4" s="1">
-        <v>7.166413</v>
+        <v>7.1664130000000004</v>
       </c>
       <c r="W4" s="1">
-        <v>1208.160000</v>
+        <v>1208.1600000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.808000</v>
+        <v>-107.80800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>25809.258178</v>
@@ -1070,724 +1486,724 @@
         <v>7.169238</v>
       </c>
       <c r="AB4" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.286600</v>
+        <v>-90.286600000000007</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>25819.585839</v>
+        <v>25819.585838999999</v>
       </c>
       <c r="AF4" s="1">
-        <v>7.172107</v>
+        <v>7.1721069999999996</v>
       </c>
       <c r="AG4" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.605700</v>
+        <v>-85.605699999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>25829.999346</v>
+        <v>25829.999346000001</v>
       </c>
       <c r="AK4" s="1">
-        <v>7.175000</v>
+        <v>7.1749999999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1226.800000</v>
+        <v>1226.8</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.540400</v>
+        <v>-88.540400000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>25840.242750</v>
+        <v>25840.242750000001</v>
       </c>
       <c r="AP4" s="1">
-        <v>7.177845</v>
+        <v>7.1778449999999996</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.154000</v>
+        <v>-100.154</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>25851.621940</v>
+        <v>25851.621940000001</v>
       </c>
       <c r="AU4" s="1">
         <v>7.181006</v>
       </c>
       <c r="AV4" s="1">
-        <v>1244.380000</v>
+        <v>1244.3800000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-119.091000</v>
+        <v>-119.09099999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>25862.736789</v>
+        <v>25862.736788999999</v>
       </c>
       <c r="AZ4" s="1">
         <v>7.184094</v>
       </c>
       <c r="BA4" s="1">
-        <v>1252.660000</v>
+        <v>1252.6600000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-136.292000</v>
+        <v>-136.292</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>25873.672119</v>
+        <v>25873.672118999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>7.187131</v>
+        <v>7.1871309999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG4" s="1">
-        <v>-216.990000</v>
+        <v>-216.99</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>25884.950120</v>
+        <v>25884.950120000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>7.190264</v>
       </c>
       <c r="BK4" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL4" s="1">
-        <v>-351.458000</v>
+        <v>-351.45800000000003</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>25896.060505</v>
+        <v>25896.060505000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>7.193350</v>
+        <v>7.1933499999999997</v>
       </c>
       <c r="BP4" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-570.586000</v>
+        <v>-570.58600000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>25906.807323</v>
+        <v>25906.807323000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>7.196335</v>
+        <v>7.1963350000000004</v>
       </c>
       <c r="BU4" s="1">
-        <v>1601.770000</v>
+        <v>1601.77</v>
       </c>
       <c r="BV4" s="1">
-        <v>-818.503000</v>
+        <v>-818.50300000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>25917.553181</v>
+        <v>25917.553180999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>7.199320</v>
+        <v>7.1993200000000002</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1751.570000</v>
+        <v>1751.57</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1088.280000</v>
+        <v>-1088.28</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>25928.960142</v>
       </c>
       <c r="CD4" s="1">
-        <v>7.202489</v>
+        <v>7.2024889999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>2164.140000</v>
+        <v>2164.14</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1744.020000</v>
+        <v>-1744.02</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>25758.131023</v>
+        <v>25758.131023000002</v>
       </c>
       <c r="B5" s="1">
         <v>7.155036</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.230000</v>
+        <v>1144.23</v>
       </c>
       <c r="D5" s="1">
-        <v>-261.352000</v>
+        <v>-261.35199999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>25768.520723</v>
+        <v>25768.520723000001</v>
       </c>
       <c r="G5" s="1">
-        <v>7.157922</v>
+        <v>7.1579220000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1165.890000</v>
+        <v>1165.8900000000001</v>
       </c>
       <c r="I5" s="1">
-        <v>-219.435000</v>
+        <v>-219.435</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>25779.332515</v>
+        <v>25779.332514999998</v>
       </c>
       <c r="L5" s="1">
-        <v>7.160926</v>
+        <v>7.1609259999999999</v>
       </c>
       <c r="M5" s="1">
-        <v>1193.220000</v>
+        <v>1193.22</v>
       </c>
       <c r="N5" s="1">
-        <v>-151.476000</v>
+        <v>-151.476</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>25789.506987</v>
+        <v>25789.506987000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>7.163752</v>
+        <v>7.1637519999999997</v>
       </c>
       <c r="R5" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="S5" s="1">
-        <v>-129.071000</v>
+        <v>-129.071</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>25799.502329</v>
+        <v>25799.502328999999</v>
       </c>
       <c r="V5" s="1">
-        <v>7.166528</v>
+        <v>7.1665279999999996</v>
       </c>
       <c r="W5" s="1">
-        <v>1208.160000</v>
+        <v>1208.1600000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.750000</v>
+        <v>-107.75</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>25809.679739</v>
+        <v>25809.679738999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>7.169355</v>
+        <v>7.1693550000000004</v>
       </c>
       <c r="AB5" s="1">
-        <v>1215.330000</v>
+        <v>1215.33</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.317900</v>
+        <v>-90.317899999999995</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
         <v>25819.850702</v>
       </c>
       <c r="AF5" s="1">
-        <v>7.172181</v>
+        <v>7.1721810000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.579300</v>
+        <v>-85.579300000000003</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>25830.351505</v>
+        <v>25830.351504999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>7.175098</v>
+        <v>7.1750980000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.577200</v>
+        <v>-88.577200000000005</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>25840.605300</v>
+        <v>25840.605299999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>7.177946</v>
+        <v>7.1779460000000004</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.117000</v>
+        <v>-100.117</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>25851.986035</v>
+        <v>25851.986035000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>7.181107</v>
+        <v>7.1811069999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW5" s="1">
-        <v>-119.110000</v>
+        <v>-119.11</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
         <v>25863.098372</v>
       </c>
       <c r="AZ5" s="1">
-        <v>7.184194</v>
+        <v>7.1841939999999997</v>
       </c>
       <c r="BA5" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-136.264000</v>
+        <v>-136.26400000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>25874.404181</v>
+        <v>25874.404181000002</v>
       </c>
       <c r="BE5" s="1">
-        <v>7.187334</v>
+        <v>7.1873339999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG5" s="1">
-        <v>-216.990000</v>
+        <v>-216.99</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>25885.316167</v>
+        <v>25885.316167000001</v>
       </c>
       <c r="BJ5" s="1">
         <v>7.190366</v>
       </c>
       <c r="BK5" s="1">
-        <v>1360.560000</v>
+        <v>1360.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-351.451000</v>
+        <v>-351.45100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>25896.457336</v>
+        <v>25896.457335999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>7.193460</v>
+        <v>7.19346</v>
       </c>
       <c r="BP5" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-570.586000</v>
+        <v>-570.58600000000001</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>25907.232426</v>
+        <v>25907.232425999999</v>
       </c>
       <c r="BT5" s="1">
         <v>7.196453</v>
       </c>
       <c r="BU5" s="1">
-        <v>1601.820000</v>
+        <v>1601.82</v>
       </c>
       <c r="BV5" s="1">
-        <v>-818.499000</v>
+        <v>-818.49900000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>25917.990621</v>
+        <v>25917.990621000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>7.199442</v>
+        <v>7.1994420000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1751.630000</v>
+        <v>1751.63</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1088.270000</v>
+        <v>-1088.27</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>25929.803340</v>
+        <v>25929.803339999999</v>
       </c>
       <c r="CD5" s="1">
-        <v>7.202723</v>
+        <v>7.2027229999999998</v>
       </c>
       <c r="CE5" s="1">
-        <v>2162.140000</v>
+        <v>2162.14</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1744.730000</v>
+        <v>-1744.73</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>25758.475247</v>
+        <v>25758.475246999998</v>
       </c>
       <c r="B6" s="1">
         <v>7.155132</v>
       </c>
       <c r="C6" s="1">
-        <v>1143.810000</v>
+        <v>1143.81</v>
       </c>
       <c r="D6" s="1">
-        <v>-261.292000</v>
+        <v>-261.29199999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>25768.867921</v>
+        <v>25768.867921000001</v>
       </c>
       <c r="G6" s="1">
-        <v>7.158019</v>
+        <v>7.1580190000000004</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.510000</v>
+        <v>1165.51</v>
       </c>
       <c r="I6" s="1">
-        <v>-218.361000</v>
+        <v>-218.36099999999999</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>25779.751139</v>
       </c>
       <c r="L6" s="1">
-        <v>7.161042</v>
+        <v>7.1610420000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1193.140000</v>
+        <v>1193.1400000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-151.986000</v>
+        <v>-151.98599999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>25789.934005</v>
+        <v>25789.934004999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>7.163871</v>
+        <v>7.1638710000000003</v>
       </c>
       <c r="R6" s="1">
-        <v>1201.080000</v>
+        <v>1201.08</v>
       </c>
       <c r="S6" s="1">
-        <v>-129.145000</v>
+        <v>-129.14500000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>25799.780584</v>
       </c>
       <c r="V6" s="1">
-        <v>7.166606</v>
+        <v>7.1666059999999998</v>
       </c>
       <c r="W6" s="1">
-        <v>1208.170000</v>
+        <v>1208.17</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.830000</v>
+        <v>-107.83</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>25810.157926</v>
       </c>
       <c r="AA6" s="1">
-        <v>7.169488</v>
+        <v>7.1694880000000003</v>
       </c>
       <c r="AB6" s="1">
-        <v>1215.450000</v>
+        <v>1215.45</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.347000</v>
+        <v>-90.346999999999994</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>25820.191485</v>
+        <v>25820.191484999999</v>
       </c>
       <c r="AF6" s="1">
         <v>7.172275</v>
       </c>
       <c r="AG6" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.553200</v>
+        <v>-85.553200000000004</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>25830.700191</v>
       </c>
       <c r="AK6" s="1">
-        <v>7.175194</v>
+        <v>7.1751940000000003</v>
       </c>
       <c r="AL6" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.576700</v>
+        <v>-88.576700000000002</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>25840.965891</v>
       </c>
       <c r="AP6" s="1">
-        <v>7.178046</v>
+        <v>7.1780460000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1234.580000</v>
+        <v>1234.58</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.169000</v>
+        <v>-100.169</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>25852.717106</v>
       </c>
       <c r="AU6" s="1">
-        <v>7.181310</v>
+        <v>7.1813099999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-119.107000</v>
+        <v>-119.107</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>25863.814100</v>
+        <v>25863.8141</v>
       </c>
       <c r="AZ6" s="1">
         <v>7.184393</v>
       </c>
       <c r="BA6" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-136.255000</v>
+        <v>-136.255</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>25874.781638</v>
       </c>
       <c r="BE6" s="1">
-        <v>7.187439</v>
+        <v>7.1874390000000004</v>
       </c>
       <c r="BF6" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG6" s="1">
-        <v>-217.000000</v>
+        <v>-217</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>25885.692633</v>
+        <v>25885.692632999999</v>
       </c>
       <c r="BJ6" s="1">
-        <v>7.190470</v>
+        <v>7.1904700000000004</v>
       </c>
       <c r="BK6" s="1">
-        <v>1360.530000</v>
+        <v>1360.53</v>
       </c>
       <c r="BL6" s="1">
-        <v>-351.482000</v>
+        <v>-351.48200000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>25896.875928</v>
+        <v>25896.875928000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>7.193577</v>
+        <v>7.1935770000000003</v>
       </c>
       <c r="BP6" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-570.581000</v>
+        <v>-570.58100000000002</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>25907.960062</v>
+        <v>25907.960061999998</v>
       </c>
       <c r="BT6" s="1">
-        <v>7.196656</v>
+        <v>7.1966559999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1601.900000</v>
+        <v>1601.9</v>
       </c>
       <c r="BV6" s="1">
-        <v>-818.669000</v>
+        <v>-818.66899999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>25918.704363</v>
+        <v>25918.704363000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>7.199640</v>
+        <v>7.1996399999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1751.510000</v>
+        <v>1751.51</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1087.990000</v>
+        <v>-1087.99</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>25930.038941</v>
+        <v>25930.038940999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>7.202789</v>
+        <v>7.2027890000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>2162.180000</v>
+        <v>2162.1799999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1744.740000</v>
+        <v>-1744.74</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>25758.900319</v>
       </c>
       <c r="B7" s="1">
-        <v>7.155250</v>
+        <v>7.1552499999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1143.940000</v>
+        <v>1143.94</v>
       </c>
       <c r="D7" s="1">
-        <v>-261.267000</v>
+        <v>-261.267</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>25769.284561</v>
       </c>
       <c r="G7" s="1">
-        <v>7.158135</v>
+        <v>7.1581349999999997</v>
       </c>
       <c r="H7" s="1">
-        <v>1166.680000</v>
+        <v>1166.68</v>
       </c>
       <c r="I7" s="1">
-        <v>-219.349000</v>
+        <v>-219.34899999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>25780.022482</v>
@@ -1796,330 +2212,330 @@
         <v>7.161117</v>
       </c>
       <c r="M7" s="1">
-        <v>1193.290000</v>
+        <v>1193.29</v>
       </c>
       <c r="N7" s="1">
-        <v>-151.537000</v>
+        <v>-151.53700000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>25790.212262</v>
+        <v>25790.212262000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>7.163948</v>
+        <v>7.1639480000000004</v>
       </c>
       <c r="R7" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="S7" s="1">
-        <v>-129.148000</v>
+        <v>-129.148</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>25800.124841</v>
+        <v>25800.124841000001</v>
       </c>
       <c r="V7" s="1">
-        <v>7.166701</v>
+        <v>7.1667009999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1208.250000</v>
+        <v>1208.25</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.838000</v>
+        <v>-107.83799999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>25810.484283</v>
+        <v>25810.484283000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>7.169579</v>
+        <v>7.1695789999999997</v>
       </c>
       <c r="AB7" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.415800</v>
+        <v>-90.415800000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>25820.536206</v>
+        <v>25820.536206000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>7.172371</v>
+        <v>7.1723710000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.572800</v>
+        <v>-85.572800000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>25831.398559</v>
+        <v>25831.398559000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>7.175388</v>
+        <v>7.1753879999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.573000</v>
+        <v>-88.572999999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>25841.686596</v>
       </c>
       <c r="AP7" s="1">
-        <v>7.178246</v>
+        <v>7.1782459999999997</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.135000</v>
+        <v>-100.13500000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>25853.101540</v>
+        <v>25853.10154</v>
       </c>
       <c r="AU7" s="1">
-        <v>7.181417</v>
+        <v>7.1814169999999997</v>
       </c>
       <c r="AV7" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW7" s="1">
-        <v>-119.094000</v>
+        <v>-119.09399999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>25864.171219</v>
       </c>
       <c r="AZ7" s="1">
-        <v>7.184492</v>
+        <v>7.1844919999999997</v>
       </c>
       <c r="BA7" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB7" s="1">
-        <v>-136.274000</v>
+        <v>-136.274</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>25875.174010</v>
+        <v>25875.174009999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>7.187548</v>
+        <v>7.1875479999999996</v>
       </c>
       <c r="BF7" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-216.968000</v>
+        <v>-216.96799999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>25886.377110</v>
+        <v>25886.377110000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>7.190660</v>
+        <v>7.1906600000000003</v>
       </c>
       <c r="BK7" s="1">
-        <v>1360.570000</v>
+        <v>1360.57</v>
       </c>
       <c r="BL7" s="1">
-        <v>-351.488000</v>
+        <v>-351.488</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>25897.579255</v>
+        <v>25897.579255000001</v>
       </c>
       <c r="BO7" s="1">
-        <v>7.193772</v>
+        <v>7.1937720000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-570.581000</v>
+        <v>-570.58100000000002</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>25908.080554</v>
       </c>
       <c r="BT7" s="1">
-        <v>7.196689</v>
+        <v>7.1966890000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1601.960000</v>
+        <v>1601.96</v>
       </c>
       <c r="BV7" s="1">
-        <v>-818.773000</v>
+        <v>-818.77300000000002</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>25918.887921</v>
+        <v>25918.887921000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>7.199691</v>
+        <v>7.1996909999999996</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1751.610000</v>
+        <v>1751.61</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1088.210000</v>
+        <v>-1088.21</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>25930.559772</v>
+        <v>25930.559772000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>7.202933</v>
+        <v>7.2029329999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2163.880000</v>
+        <v>2163.88</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1744.270000</v>
+        <v>-1744.27</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>25759.190510</v>
+        <v>25759.19051</v>
       </c>
       <c r="B8" s="1">
-        <v>7.155331</v>
+        <v>7.1553310000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1143.840000</v>
+        <v>1143.8399999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-261.122000</v>
+        <v>-261.12200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>25769.569760</v>
+        <v>25769.569759999998</v>
       </c>
       <c r="G8" s="1">
-        <v>7.158214</v>
+        <v>7.1582140000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>1165.940000</v>
+        <v>1165.94</v>
       </c>
       <c r="I8" s="1">
-        <v>-218.824000</v>
+        <v>-218.82400000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>25780.371635</v>
       </c>
       <c r="L8" s="1">
-        <v>7.161214</v>
+        <v>7.1612140000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1193.270000</v>
+        <v>1193.27</v>
       </c>
       <c r="N8" s="1">
-        <v>-151.564000</v>
+        <v>-151.56399999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>25790.561477</v>
+        <v>25790.561476999999</v>
       </c>
       <c r="Q8" s="1">
-        <v>7.164045</v>
+        <v>7.1640449999999998</v>
       </c>
       <c r="R8" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="S8" s="1">
-        <v>-129.170000</v>
+        <v>-129.16999999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>25800.468535</v>
       </c>
       <c r="V8" s="1">
-        <v>7.166797</v>
+        <v>7.1667969999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1208.090000</v>
+        <v>1208.0899999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.847000</v>
+        <v>-107.84699999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>25810.996649</v>
+        <v>25810.996649000001</v>
       </c>
       <c r="AA8" s="1">
         <v>7.169721</v>
       </c>
       <c r="AB8" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.257600</v>
+        <v>-90.257599999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>25821.222172</v>
+        <v>25821.222172000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>7.172562</v>
+        <v>7.1725620000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.574600</v>
+        <v>-85.574600000000004</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>25831.741823</v>
@@ -2128,542 +2544,542 @@
         <v>7.175484</v>
       </c>
       <c r="AL8" s="1">
-        <v>1226.830000</v>
+        <v>1226.83</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.535200</v>
+        <v>-88.535200000000003</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>25842.047671</v>
       </c>
       <c r="AP8" s="1">
-        <v>7.178347</v>
+        <v>7.1783469999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1234.550000</v>
+        <v>1234.55</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.136000</v>
+        <v>-100.136</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>25853.471522</v>
       </c>
       <c r="AU8" s="1">
-        <v>7.181520</v>
+        <v>7.1815199999999999</v>
       </c>
       <c r="AV8" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-119.083000</v>
+        <v>-119.083</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>25864.530858</v>
+        <v>25864.530857999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>7.184592</v>
+        <v>7.1845920000000003</v>
       </c>
       <c r="BA8" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB8" s="1">
-        <v>-136.271000</v>
+        <v>-136.27099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>25875.849028</v>
+        <v>25875.849028000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>7.187736</v>
+        <v>7.1877360000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1292.020000</v>
+        <v>1292.02</v>
       </c>
       <c r="BG8" s="1">
-        <v>-217.007000</v>
+        <v>-217.00700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>25886.818053</v>
+        <v>25886.818052999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>7.190783</v>
+        <v>7.1907829999999997</v>
       </c>
       <c r="BK8" s="1">
-        <v>1360.520000</v>
+        <v>1360.52</v>
       </c>
       <c r="BL8" s="1">
-        <v>-351.498000</v>
+        <v>-351.49799999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>25897.691849</v>
+        <v>25897.691848999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>7.193803</v>
+        <v>7.1938029999999999</v>
       </c>
       <c r="BP8" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-570.552000</v>
+        <v>-570.55200000000002</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>25908.499209</v>
+        <v>25908.499209000001</v>
       </c>
       <c r="BT8" s="1">
-        <v>7.196805</v>
+        <v>7.1968050000000003</v>
       </c>
       <c r="BU8" s="1">
-        <v>1602.120000</v>
+        <v>1602.12</v>
       </c>
       <c r="BV8" s="1">
-        <v>-818.869000</v>
+        <v>-818.86900000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>25919.312986</v>
+        <v>25919.312986000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>7.199809</v>
+        <v>7.1998090000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1751.580000</v>
+        <v>1751.58</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1088.020000</v>
+        <v>-1088.02</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>25931.079083</v>
+        <v>25931.079083000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>7.203078</v>
+        <v>7.2030779999999996</v>
       </c>
       <c r="CE8" s="1">
-        <v>2163.540000</v>
+        <v>2163.54</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1744.870000</v>
+        <v>-1744.87</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>25759.532221</v>
+        <v>25759.532221000001</v>
       </c>
       <c r="B9" s="1">
-        <v>7.155426</v>
+        <v>7.1554260000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1143.760000</v>
+        <v>1143.76</v>
       </c>
       <c r="D9" s="1">
-        <v>-261.088000</v>
+        <v>-261.08800000000002</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>25769.914480</v>
+        <v>25769.914479999999</v>
       </c>
       <c r="G9" s="1">
-        <v>7.158310</v>
+        <v>7.1583100000000002</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.580000</v>
+        <v>1165.58</v>
       </c>
       <c r="I9" s="1">
-        <v>-218.874000</v>
+        <v>-218.874</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>25780.717843</v>
+        <v>25780.717842999999</v>
       </c>
       <c r="L9" s="1">
-        <v>7.161311</v>
+        <v>7.1613110000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>1193.010000</v>
+        <v>1193.01</v>
       </c>
       <c r="N9" s="1">
-        <v>-151.590000</v>
+        <v>-151.59</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>25790.910132</v>
+        <v>25790.910132000001</v>
       </c>
       <c r="Q9" s="1">
         <v>7.164142</v>
       </c>
       <c r="R9" s="1">
-        <v>1200.990000</v>
+        <v>1200.99</v>
       </c>
       <c r="S9" s="1">
-        <v>-129.094000</v>
+        <v>-129.09399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>25801.157020</v>
+        <v>25801.157019999999</v>
       </c>
       <c r="V9" s="1">
-        <v>7.166988</v>
+        <v>7.1669879999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>1208.110000</v>
+        <v>1208.1099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.862000</v>
+        <v>-107.86199999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>25811.366834</v>
       </c>
       <c r="AA9" s="1">
-        <v>7.169824</v>
+        <v>7.1698240000000002</v>
       </c>
       <c r="AB9" s="1">
-        <v>1215.510000</v>
+        <v>1215.51</v>
       </c>
       <c r="AC9" s="1">
-        <v>-90.363400</v>
+        <v>-90.363399999999999</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>25821.565768</v>
       </c>
       <c r="AF9" s="1">
-        <v>7.172657</v>
+        <v>7.1726570000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.550300</v>
+        <v>-85.550299999999993</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>25832.093981</v>
+        <v>25832.093981000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>7.175582</v>
+        <v>7.1755820000000003</v>
       </c>
       <c r="AL9" s="1">
-        <v>1226.830000</v>
+        <v>1226.83</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.560400</v>
+        <v>-88.560400000000001</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>25842.405280</v>
+        <v>25842.405279999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>7.178446</v>
+        <v>7.1784460000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.119000</v>
+        <v>-100.119</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>25854.141648</v>
+        <v>25854.141648000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>7.181706</v>
+        <v>7.1817060000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-119.084000</v>
+        <v>-119.084</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>25865.222739</v>
+        <v>25865.222739000001</v>
       </c>
       <c r="AZ9" s="1">
-        <v>7.184784</v>
+        <v>7.1847839999999996</v>
       </c>
       <c r="BA9" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-136.277000</v>
+        <v>-136.27699999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>25876.287523</v>
+        <v>25876.287522999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>7.187858</v>
+        <v>7.1878580000000003</v>
       </c>
       <c r="BF9" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG9" s="1">
-        <v>-217.030000</v>
+        <v>-217.03</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>25887.191046</v>
       </c>
       <c r="BJ9" s="1">
-        <v>7.190886</v>
+        <v>7.1908859999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1360.540000</v>
+        <v>1360.54</v>
       </c>
       <c r="BL9" s="1">
-        <v>-351.462000</v>
+        <v>-351.46199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>25898.115928</v>
+        <v>25898.115927999999</v>
       </c>
       <c r="BO9" s="1">
-        <v>7.193921</v>
+        <v>7.1939209999999996</v>
       </c>
       <c r="BP9" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-570.580000</v>
+        <v>-570.58000000000004</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>25908.928248</v>
       </c>
       <c r="BT9" s="1">
-        <v>7.196925</v>
+        <v>7.1969250000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1602.160000</v>
+        <v>1602.16</v>
       </c>
       <c r="BV9" s="1">
-        <v>-818.850000</v>
+        <v>-818.85</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>25919.727647</v>
       </c>
       <c r="BY9" s="1">
-        <v>7.199924</v>
+        <v>7.1999240000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1751.580000</v>
+        <v>1751.58</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1088.110000</v>
+        <v>-1088.1099999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>25931.630602</v>
+        <v>25931.630602000001</v>
       </c>
       <c r="CD9" s="1">
-        <v>7.203231</v>
+        <v>7.2032309999999997</v>
       </c>
       <c r="CE9" s="1">
-        <v>2162.430000</v>
+        <v>2162.4299999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1744.570000</v>
+        <v>-1744.57</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>25759.871981</v>
       </c>
       <c r="B10" s="1">
-        <v>7.155520</v>
+        <v>7.1555200000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1143.750000</v>
+        <v>1143.75</v>
       </c>
       <c r="D10" s="1">
-        <v>-261.313000</v>
+        <v>-261.31299999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>25770.262672</v>
+        <v>25770.262672000001</v>
       </c>
       <c r="G10" s="1">
-        <v>7.158406</v>
+        <v>7.1584060000000003</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.660000</v>
+        <v>1165.6600000000001</v>
       </c>
       <c r="I10" s="1">
-        <v>-219.296000</v>
+        <v>-219.29599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>25781.408273</v>
+        <v>25781.408273000001</v>
       </c>
       <c r="L10" s="1">
-        <v>7.161502</v>
+        <v>7.1615019999999996</v>
       </c>
       <c r="M10" s="1">
-        <v>1193.460000</v>
+        <v>1193.46</v>
       </c>
       <c r="N10" s="1">
-        <v>-151.567000</v>
+        <v>-151.56700000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>25791.607046</v>
+        <v>25791.607046000001</v>
       </c>
       <c r="Q10" s="1">
-        <v>7.164335</v>
+        <v>7.1643350000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>1201.050000</v>
+        <v>1201.05</v>
       </c>
       <c r="S10" s="1">
-        <v>-129.052000</v>
+        <v>-129.05199999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>25801.498230</v>
+        <v>25801.498230000001</v>
       </c>
       <c r="V10" s="1">
-        <v>7.167083</v>
+        <v>7.1670829999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1208.170000</v>
+        <v>1208.17</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.765000</v>
+        <v>-107.765</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>25811.716313</v>
+        <v>25811.716313000001</v>
       </c>
       <c r="AA10" s="1">
-        <v>7.169921</v>
+        <v>7.1699210000000004</v>
       </c>
       <c r="AB10" s="1">
-        <v>1215.340000</v>
+        <v>1215.3399999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.007800</v>
+        <v>-90.007800000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>25821.910621</v>
+        <v>25821.910620999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>7.172753</v>
+        <v>7.1727530000000002</v>
       </c>
       <c r="AG10" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.597700</v>
+        <v>-85.597700000000003</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>25832.752142</v>
+        <v>25832.752142000001</v>
       </c>
       <c r="AK10" s="1">
         <v>7.175764</v>
       </c>
       <c r="AL10" s="1">
-        <v>1226.810000</v>
+        <v>1226.81</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.541200</v>
+        <v>-88.541200000000003</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>25843.078352</v>
       </c>
       <c r="AP10" s="1">
-        <v>7.178633</v>
+        <v>7.1786329999999996</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1234.580000</v>
+        <v>1234.58</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.120000</v>
+        <v>-100.12</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>25854.596296</v>
@@ -2672,1178 +3088,1178 @@
         <v>7.181832</v>
       </c>
       <c r="AV10" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-119.099000</v>
+        <v>-119.099</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>25865.605649</v>
+        <v>25865.605649000001</v>
       </c>
       <c r="AZ10" s="1">
-        <v>7.184890</v>
+        <v>7.1848900000000002</v>
       </c>
       <c r="BA10" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB10" s="1">
-        <v>-136.272000</v>
+        <v>-136.27199999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>25876.648610</v>
+        <v>25876.64861</v>
       </c>
       <c r="BE10" s="1">
-        <v>7.187958</v>
+        <v>7.1879580000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1292.020000</v>
+        <v>1292.02</v>
       </c>
       <c r="BG10" s="1">
-        <v>-217.011000</v>
+        <v>-217.011</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>25887.567045</v>
       </c>
       <c r="BJ10" s="1">
-        <v>7.190991</v>
+        <v>7.1909910000000004</v>
       </c>
       <c r="BK10" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL10" s="1">
-        <v>-351.501000</v>
+        <v>-351.50099999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>25898.516230</v>
+        <v>25898.516230000001</v>
       </c>
       <c r="BO10" s="1">
         <v>7.194032</v>
       </c>
       <c r="BP10" s="1">
-        <v>1472.800000</v>
+        <v>1472.8</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-570.568000</v>
+        <v>-570.56799999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>25909.350839</v>
+        <v>25909.350838999999</v>
       </c>
       <c r="BT10" s="1">
-        <v>7.197042</v>
+        <v>7.1970419999999997</v>
       </c>
       <c r="BU10" s="1">
-        <v>1602.320000</v>
+        <v>1602.32</v>
       </c>
       <c r="BV10" s="1">
-        <v>-818.882000</v>
+        <v>-818.88199999999995</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>25920.194345</v>
       </c>
       <c r="BY10" s="1">
-        <v>7.200054</v>
+        <v>7.2000539999999997</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1751.620000</v>
+        <v>1751.62</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1088.120000</v>
+        <v>-1088.1199999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>25932.160825</v>
+        <v>25932.160824999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>7.203378</v>
+        <v>7.2033779999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>2164.070000</v>
+        <v>2164.0700000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1743.850000</v>
+        <v>-1743.85</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>25760.554835</v>
+        <v>25760.554834999999</v>
       </c>
       <c r="B11" s="1">
-        <v>7.155710</v>
+        <v>7.15571</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.000000</v>
+        <v>1144</v>
       </c>
       <c r="D11" s="1">
-        <v>-261.286000</v>
+        <v>-261.286</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>25770.956110</v>
+        <v>25770.956109999999</v>
       </c>
       <c r="G11" s="1">
-        <v>7.158599</v>
+        <v>7.1585989999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>1166.310000</v>
+        <v>1166.31</v>
       </c>
       <c r="I11" s="1">
-        <v>-218.618000</v>
+        <v>-218.61799999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>25781.752000</v>
+        <v>25781.752</v>
       </c>
       <c r="L11" s="1">
-        <v>7.161598</v>
+        <v>7.1615979999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1193.640000</v>
+        <v>1193.6400000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-151.923000</v>
+        <v>-151.923</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>25791.954243</v>
       </c>
       <c r="Q11" s="1">
-        <v>7.164432</v>
+        <v>7.1644319999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="S11" s="1">
-        <v>-129.067000</v>
+        <v>-129.06700000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>25801.841958</v>
+        <v>25801.841958000001</v>
       </c>
       <c r="V11" s="1">
-        <v>7.167178</v>
+        <v>7.1671779999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1208.130000</v>
+        <v>1208.1300000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.842000</v>
+        <v>-107.842</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>25812.366742</v>
+        <v>25812.366741999998</v>
       </c>
       <c r="AA11" s="1">
         <v>7.170102</v>
       </c>
       <c r="AB11" s="1">
-        <v>1215.430000</v>
+        <v>1215.43</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.372900</v>
+        <v>-90.372900000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>25822.554413</v>
+        <v>25822.554413000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>7.172932</v>
+        <v>7.1729320000000003</v>
       </c>
       <c r="AG11" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.513400</v>
+        <v>-85.513400000000004</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>25833.138524</v>
+        <v>25833.138524000002</v>
       </c>
       <c r="AK11" s="1">
         <v>7.175872</v>
       </c>
       <c r="AL11" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.559500</v>
+        <v>-88.5595</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>25843.519327</v>
+        <v>25843.519327000002</v>
       </c>
       <c r="AP11" s="1">
-        <v>7.178755</v>
+        <v>7.1787549999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.141000</v>
+        <v>-100.14100000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>25854.960016</v>
+        <v>25854.960016000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>7.181933</v>
+        <v>7.1819329999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1244.330000</v>
+        <v>1244.33</v>
       </c>
       <c r="AW11" s="1">
-        <v>-119.087000</v>
+        <v>-119.087</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>25865.965777</v>
+        <v>25865.965777000001</v>
       </c>
       <c r="AZ11" s="1">
-        <v>7.184990</v>
+        <v>7.18499</v>
       </c>
       <c r="BA11" s="1">
-        <v>1252.650000</v>
+        <v>1252.6500000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-136.287000</v>
+        <v>-136.28700000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>25877.012147</v>
+        <v>25877.012147000001</v>
       </c>
       <c r="BE11" s="1">
         <v>7.188059</v>
       </c>
       <c r="BF11" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG11" s="1">
-        <v>-217.029000</v>
+        <v>-217.029</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>25887.981700</v>
+        <v>25887.9817</v>
       </c>
       <c r="BJ11" s="1">
-        <v>7.191106</v>
+        <v>7.1911060000000004</v>
       </c>
       <c r="BK11" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-351.498000</v>
+        <v>-351.49799999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>25898.933372</v>
       </c>
       <c r="BO11" s="1">
-        <v>7.194148</v>
+        <v>7.1941480000000002</v>
       </c>
       <c r="BP11" s="1">
-        <v>1472.840000</v>
+        <v>1472.84</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-570.587000</v>
+        <v>-570.58699999999999</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>25909.770423</v>
+        <v>25909.770423000002</v>
       </c>
       <c r="BT11" s="1">
-        <v>7.197158</v>
+        <v>7.1971579999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1602.390000</v>
+        <v>1602.39</v>
       </c>
       <c r="BV11" s="1">
-        <v>-818.708000</v>
+        <v>-818.70799999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>25920.735481</v>
       </c>
       <c r="BY11" s="1">
-        <v>7.200204</v>
+        <v>7.2002040000000003</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1751.520000</v>
+        <v>1751.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1088.170000</v>
+        <v>-1088.17</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>25932.680137</v>
+        <v>25932.680136999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>7.203522</v>
+        <v>7.2035220000000004</v>
       </c>
       <c r="CE11" s="1">
-        <v>2162.810000</v>
+        <v>2162.81</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1742.430000</v>
+        <v>-1742.43</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>25760.898203</v>
+        <v>25760.898203000001</v>
       </c>
       <c r="B12" s="1">
         <v>7.155805</v>
       </c>
       <c r="C12" s="1">
-        <v>1144.080000</v>
+        <v>1144.08</v>
       </c>
       <c r="D12" s="1">
-        <v>-261.238000</v>
+        <v>-261.238</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>25771.303642</v>
+        <v>25771.303641999999</v>
       </c>
       <c r="G12" s="1">
-        <v>7.158695</v>
+        <v>7.1586949999999998</v>
       </c>
       <c r="H12" s="1">
-        <v>1165.980000</v>
+        <v>1165.98</v>
       </c>
       <c r="I12" s="1">
-        <v>-219.064000</v>
+        <v>-219.06399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>25782.099696</v>
+        <v>25782.099696000001</v>
       </c>
       <c r="L12" s="1">
-        <v>7.161694</v>
+        <v>7.1616939999999998</v>
       </c>
       <c r="M12" s="1">
-        <v>1193.260000</v>
+        <v>1193.26</v>
       </c>
       <c r="N12" s="1">
-        <v>-151.420000</v>
+        <v>-151.41999999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>25792.305874</v>
+        <v>25792.305874000001</v>
       </c>
       <c r="Q12" s="1">
-        <v>7.164529</v>
+        <v>7.1645289999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="S12" s="1">
-        <v>-129.172000</v>
+        <v>-129.172</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>25802.491222</v>
+        <v>25802.491222000001</v>
       </c>
       <c r="V12" s="1">
-        <v>7.167359</v>
+        <v>7.1673590000000003</v>
       </c>
       <c r="W12" s="1">
-        <v>1208.140000</v>
+        <v>1208.1400000000001</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.818000</v>
+        <v>-107.818</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>25812.757912</v>
+        <v>25812.757912000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>7.170211</v>
+        <v>7.1702110000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1215.250000</v>
+        <v>1215.25</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.457600</v>
+        <v>-90.457599999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>25822.938299</v>
+        <v>25822.938299000001</v>
       </c>
       <c r="AF12" s="1">
         <v>7.173038</v>
       </c>
       <c r="AG12" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.561700</v>
+        <v>-85.561700000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>25833.487244</v>
       </c>
       <c r="AK12" s="1">
-        <v>7.175969</v>
+        <v>7.1759690000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>1226.830000</v>
+        <v>1226.83</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.560400</v>
+        <v>-88.560400000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>25843.880384</v>
       </c>
       <c r="AP12" s="1">
-        <v>7.178856</v>
+        <v>7.1788559999999997</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1234.570000</v>
+        <v>1234.57</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.158000</v>
+        <v>-100.158</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>25855.327055</v>
+        <v>25855.327055000002</v>
       </c>
       <c r="AU12" s="1">
-        <v>7.182035</v>
+        <v>7.1820349999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-119.092000</v>
+        <v>-119.092</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>25866.384370</v>
+        <v>25866.38437</v>
       </c>
       <c r="AZ12" s="1">
-        <v>7.185107</v>
+        <v>7.1851070000000004</v>
       </c>
       <c r="BA12" s="1">
-        <v>1252.660000</v>
+        <v>1252.6600000000001</v>
       </c>
       <c r="BB12" s="1">
-        <v>-136.295000</v>
+        <v>-136.29499999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>25877.424322</v>
+        <v>25877.424321999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>7.188173</v>
+        <v>7.1881729999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1292.030000</v>
+        <v>1292.03</v>
       </c>
       <c r="BG12" s="1">
-        <v>-217.020000</v>
+        <v>-217.02</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>25888.339285</v>
+        <v>25888.339284999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>7.191205</v>
+        <v>7.1912050000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="BL12" s="1">
-        <v>-351.484000</v>
+        <v>-351.48399999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>25899.333605</v>
       </c>
       <c r="BO12" s="1">
-        <v>7.194259</v>
+        <v>7.1942589999999997</v>
       </c>
       <c r="BP12" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-570.567000</v>
+        <v>-570.56700000000001</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>25910.196488</v>
+        <v>25910.196488000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>7.197277</v>
+        <v>7.1972769999999997</v>
       </c>
       <c r="BU12" s="1">
-        <v>1602.600000</v>
+        <v>1602.6</v>
       </c>
       <c r="BV12" s="1">
-        <v>-818.806000</v>
+        <v>-818.80600000000004</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>25921.052921</v>
+        <v>25921.052920999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>7.200292</v>
+        <v>7.2002920000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1751.590000</v>
+        <v>1751.59</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1088.150000</v>
+        <v>-1088.1500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>25933.195976</v>
+        <v>25933.195975999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>7.203666</v>
+        <v>7.2036660000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2161.470000</v>
+        <v>2161.4699999999998</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1744.000000</v>
+        <v>-1744</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>25761.242923</v>
+        <v>25761.242923000002</v>
       </c>
       <c r="B13" s="1">
-        <v>7.155901</v>
+        <v>7.1559010000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.240000</v>
+        <v>1144.24</v>
       </c>
       <c r="D13" s="1">
-        <v>-261.446000</v>
+        <v>-261.44600000000003</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>25771.647006</v>
+        <v>25771.647005999999</v>
       </c>
       <c r="G13" s="1">
-        <v>7.158791</v>
+        <v>7.1587909999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1165.680000</v>
+        <v>1165.68</v>
       </c>
       <c r="I13" s="1">
-        <v>-218.989000</v>
+        <v>-218.989</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>25782.750447</v>
+        <v>25782.750446999999</v>
       </c>
       <c r="L13" s="1">
-        <v>7.161875</v>
+        <v>7.1618750000000002</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.440000</v>
+        <v>1193.44</v>
       </c>
       <c r="N13" s="1">
-        <v>-151.690000</v>
+        <v>-151.69</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>25792.738423</v>
+        <v>25792.738422999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>7.164650</v>
+        <v>7.16465</v>
       </c>
       <c r="R13" s="1">
-        <v>1201.010000</v>
+        <v>1201.01</v>
       </c>
       <c r="S13" s="1">
-        <v>-129.193000</v>
+        <v>-129.19300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>25802.875156</v>
+        <v>25802.875155999998</v>
       </c>
       <c r="V13" s="1">
         <v>7.167465</v>
       </c>
       <c r="W13" s="1">
-        <v>1208.230000</v>
+        <v>1208.23</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.807000</v>
+        <v>-107.807</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>25813.107623</v>
       </c>
       <c r="AA13" s="1">
-        <v>7.170308</v>
+        <v>7.1703080000000003</v>
       </c>
       <c r="AB13" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.170100</v>
+        <v>-90.170100000000005</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>25823.286489</v>
+        <v>25823.286488999998</v>
       </c>
       <c r="AF13" s="1">
-        <v>7.173135</v>
+        <v>7.1731350000000003</v>
       </c>
       <c r="AG13" s="1">
-        <v>1219.900000</v>
+        <v>1219.9000000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.597900</v>
+        <v>-85.597899999999996</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>25833.835931</v>
+        <v>25833.835931000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>7.176066</v>
+        <v>7.1760659999999996</v>
       </c>
       <c r="AL13" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.558500</v>
+        <v>-88.558499999999995</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>25844.240014</v>
+        <v>25844.240013999999</v>
       </c>
       <c r="AP13" s="1">
-        <v>7.178956</v>
+        <v>7.1789560000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.124000</v>
+        <v>-100.124</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>25855.749654</v>
+        <v>25855.749653999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>7.182153</v>
+        <v>7.1821529999999996</v>
       </c>
       <c r="AV13" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-119.094000</v>
+        <v>-119.09399999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>25866.681472</v>
       </c>
       <c r="AZ13" s="1">
-        <v>7.185189</v>
+        <v>7.1851890000000003</v>
       </c>
       <c r="BA13" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-136.294000</v>
+        <v>-136.29400000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>25877.732866</v>
+        <v>25877.732865999998</v>
       </c>
       <c r="BE13" s="1">
-        <v>7.188259</v>
+        <v>7.1882590000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG13" s="1">
-        <v>-217.011000</v>
+        <v>-217.011</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>25888.716275</v>
+        <v>25888.716274999999</v>
       </c>
       <c r="BJ13" s="1">
-        <v>7.191310</v>
+        <v>7.1913099999999996</v>
       </c>
       <c r="BK13" s="1">
-        <v>1360.580000</v>
+        <v>1360.58</v>
       </c>
       <c r="BL13" s="1">
-        <v>-351.484000</v>
+        <v>-351.48399999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>25899.756196</v>
+        <v>25899.756195999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>7.194377</v>
+        <v>7.1943770000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-570.536000</v>
+        <v>-570.53599999999994</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>25910.607174</v>
+        <v>25910.607174000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>7.197391</v>
+        <v>7.1973909999999997</v>
       </c>
       <c r="BU13" s="1">
-        <v>1602.580000</v>
+        <v>1602.58</v>
       </c>
       <c r="BV13" s="1">
-        <v>-818.585000</v>
+        <v>-818.58500000000004</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>25921.499354</v>
       </c>
       <c r="BY13" s="1">
-        <v>7.200416</v>
+        <v>7.2004159999999997</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1751.500000</v>
+        <v>1751.5</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1088.140000</v>
+        <v>-1088.1400000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>25933.712344</v>
       </c>
       <c r="CD13" s="1">
-        <v>7.203809</v>
+        <v>7.2038089999999997</v>
       </c>
       <c r="CE13" s="1">
-        <v>2163.580000</v>
+        <v>2163.58</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1744.990000</v>
+        <v>-1744.99</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>25761.887793</v>
+        <v>25761.887793000002</v>
       </c>
       <c r="B14" s="1">
-        <v>7.156080</v>
+        <v>7.1560800000000002</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.160000</v>
+        <v>1144.1600000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-261.079000</v>
+        <v>-261.07900000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>25772.289361</v>
+        <v>25772.289360999999</v>
       </c>
       <c r="G14" s="1">
-        <v>7.158969</v>
+        <v>7.1589689999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.790000</v>
+        <v>1165.79</v>
       </c>
       <c r="I14" s="1">
-        <v>-219.363000</v>
+        <v>-219.363</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>25783.132895</v>
+        <v>25783.132894999999</v>
       </c>
       <c r="L14" s="1">
-        <v>7.161981</v>
+        <v>7.1619809999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>1193.370000</v>
+        <v>1193.3699999999999</v>
       </c>
       <c r="N14" s="1">
-        <v>-151.634000</v>
+        <v>-151.63399999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>25793.018384</v>
+        <v>25793.018383999999</v>
       </c>
       <c r="Q14" s="1">
-        <v>7.164727</v>
+        <v>7.1647270000000001</v>
       </c>
       <c r="R14" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="S14" s="1">
-        <v>-129.165000</v>
+        <v>-129.16499999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>25803.216404</v>
+        <v>25803.216403999999</v>
       </c>
       <c r="V14" s="1">
-        <v>7.167560</v>
+        <v>7.1675599999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1208.140000</v>
+        <v>1208.1400000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.829000</v>
+        <v>-107.82899999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
         <v>25813.457799</v>
       </c>
       <c r="AA14" s="1">
-        <v>7.170405</v>
+        <v>7.1704049999999997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1215.440000</v>
+        <v>1215.44</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.313300</v>
+        <v>-90.313299999999998</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>25823.629722</v>
+        <v>25823.629722000001</v>
       </c>
       <c r="AF14" s="1">
-        <v>7.173230</v>
+        <v>7.1732300000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.552600</v>
+        <v>-85.552599999999998</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>25834.256542</v>
+        <v>25834.256541999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>7.176182</v>
+        <v>7.1761819999999998</v>
       </c>
       <c r="AL14" s="1">
-        <v>1226.860000</v>
+        <v>1226.8599999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.557100</v>
+        <v>-88.557100000000005</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>25844.666541</v>
+        <v>25844.666540999999</v>
       </c>
       <c r="AP14" s="1">
         <v>7.179074</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1234.610000</v>
+        <v>1234.6099999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.152000</v>
+        <v>-100.152</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>25856.053694</v>
+        <v>25856.053693999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>7.182237</v>
+        <v>7.1822369999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-119.106000</v>
+        <v>-119.10599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>25867.042560</v>
+        <v>25867.042560000002</v>
       </c>
       <c r="AZ14" s="1">
-        <v>7.185290</v>
+        <v>7.1852900000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-136.268000</v>
+        <v>-136.268</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>25878.093425</v>
+        <v>25878.093424999999</v>
       </c>
       <c r="BE14" s="1">
-        <v>7.188359</v>
+        <v>7.1883590000000002</v>
       </c>
       <c r="BF14" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG14" s="1">
-        <v>-216.997000</v>
+        <v>-216.99700000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>25889.094194</v>
+        <v>25889.094194000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>7.191415</v>
+        <v>7.1914150000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1360.560000</v>
+        <v>1360.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-351.485000</v>
+        <v>-351.48500000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>25900.150020</v>
+        <v>25900.150020000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>7.194486</v>
+        <v>7.1944860000000004</v>
       </c>
       <c r="BP14" s="1">
-        <v>1472.760000</v>
+        <v>1472.76</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-570.553000</v>
+        <v>-570.553</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>25911.037702</v>
+        <v>25911.037702000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>7.197510</v>
+        <v>7.1975100000000003</v>
       </c>
       <c r="BU14" s="1">
-        <v>1602.750000</v>
+        <v>1602.75</v>
       </c>
       <c r="BV14" s="1">
-        <v>-818.537000</v>
+        <v>-818.53700000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>25921.927897</v>
+        <v>25921.927897000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>7.200536</v>
+        <v>7.2005359999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1751.670000</v>
+        <v>1751.67</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1088.200000</v>
+        <v>-1088.2</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>25934.228648</v>
       </c>
       <c r="CD14" s="1">
-        <v>7.203952</v>
+        <v>7.2039520000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2163.700000</v>
+        <v>2163.6999999999998</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1742.740000</v>
+        <v>-1742.74</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>25762.264217</v>
       </c>
       <c r="B15" s="1">
-        <v>7.156185</v>
+        <v>7.1561849999999998</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D15" s="1">
-        <v>-261.307000</v>
+        <v>-261.30700000000002</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>25772.678684</v>
+        <v>25772.678683999999</v>
       </c>
       <c r="G15" s="1">
-        <v>7.159077</v>
+        <v>7.1590769999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.670000</v>
+        <v>1165.67</v>
       </c>
       <c r="I15" s="1">
-        <v>-218.617000</v>
+        <v>-218.61699999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>25783.478078</v>
@@ -3852,208 +4268,208 @@
         <v>7.162077</v>
       </c>
       <c r="M15" s="1">
-        <v>1193.420000</v>
+        <v>1193.42</v>
       </c>
       <c r="N15" s="1">
-        <v>-151.287000</v>
+        <v>-151.28700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>25793.367313</v>
+        <v>25793.367312999999</v>
       </c>
       <c r="Q15" s="1">
-        <v>7.164824</v>
+        <v>7.1648240000000003</v>
       </c>
       <c r="R15" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S15" s="1">
-        <v>-129.105000</v>
+        <v>-129.10499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>25803.564596</v>
       </c>
       <c r="V15" s="1">
-        <v>7.167657</v>
+        <v>7.1676570000000002</v>
       </c>
       <c r="W15" s="1">
-        <v>1208.160000</v>
+        <v>1208.1600000000001</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.834000</v>
+        <v>-107.834</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>25813.877413</v>
+        <v>25813.877412999998</v>
       </c>
       <c r="AA15" s="1">
-        <v>7.170522</v>
+        <v>7.1705220000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1215.290000</v>
+        <v>1215.29</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.217200</v>
+        <v>-90.217200000000005</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>25824.053812</v>
+        <v>25824.053811999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>7.173348</v>
+        <v>7.1733479999999998</v>
       </c>
       <c r="AG15" s="1">
-        <v>1219.920000</v>
+        <v>1219.92</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.572100</v>
+        <v>-85.572100000000006</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>25834.534298</v>
+        <v>25834.534297999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>7.176260</v>
+        <v>7.1762600000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.543300</v>
+        <v>-88.543300000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>25844.962157</v>
+        <v>25844.962157000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>7.179156</v>
+        <v>7.1791559999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.136000</v>
+        <v>-100.136</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>25856.420238</v>
+        <v>25856.420237999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>7.182339</v>
+        <v>7.1823389999999998</v>
       </c>
       <c r="AV15" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW15" s="1">
-        <v>-119.126000</v>
+        <v>-119.126</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>25867.399713</v>
+        <v>25867.399712999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>7.185389</v>
+        <v>7.1853889999999998</v>
       </c>
       <c r="BA15" s="1">
-        <v>1252.650000</v>
+        <v>1252.6500000000001</v>
       </c>
       <c r="BB15" s="1">
-        <v>-136.280000</v>
+        <v>-136.28</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>25878.456000</v>
+        <v>25878.455999999998</v>
       </c>
       <c r="BE15" s="1">
-        <v>7.188460</v>
+        <v>7.1884600000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1292.020000</v>
+        <v>1292.02</v>
       </c>
       <c r="BG15" s="1">
-        <v>-217.001000</v>
+        <v>-217.001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>25889.844145</v>
+        <v>25889.844144999999</v>
       </c>
       <c r="BJ15" s="1">
-        <v>7.191623</v>
+        <v>7.1916229999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL15" s="1">
-        <v>-351.509000</v>
+        <v>-351.50900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>25900.570627</v>
+        <v>25900.570627000001</v>
       </c>
       <c r="BO15" s="1">
-        <v>7.194603</v>
+        <v>7.1946029999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1472.860000</v>
+        <v>1472.86</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-570.630000</v>
+        <v>-570.63</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>25911.466741</v>
       </c>
       <c r="BT15" s="1">
-        <v>7.197630</v>
+        <v>7.1976300000000002</v>
       </c>
       <c r="BU15" s="1">
-        <v>1602.730000</v>
+        <v>1602.73</v>
       </c>
       <c r="BV15" s="1">
-        <v>-818.454000</v>
+        <v>-818.45399999999995</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>25922.348968</v>
+        <v>25922.348967999998</v>
       </c>
       <c r="BY15" s="1">
-        <v>7.200652</v>
+        <v>7.2006519999999998</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1751.530000</v>
+        <v>1751.53</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1088.010000</v>
+        <v>-1088.01</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>25934.749463</v>
@@ -4062,1238 +4478,1238 @@
         <v>7.204097</v>
       </c>
       <c r="CE15" s="1">
-        <v>2162.090000</v>
+        <v>2162.09</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1744.740000</v>
+        <v>-1744.74</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>25762.608905</v>
+        <v>25762.608905000001</v>
       </c>
       <c r="B16" s="1">
-        <v>7.156280</v>
+        <v>7.1562799999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1143.890000</v>
+        <v>1143.8900000000001</v>
       </c>
       <c r="D16" s="1">
-        <v>-261.048000</v>
+        <v>-261.048</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>25773.022909</v>
+        <v>25773.022908999999</v>
       </c>
       <c r="G16" s="1">
         <v>7.159173</v>
       </c>
       <c r="H16" s="1">
-        <v>1165.670000</v>
+        <v>1165.67</v>
       </c>
       <c r="I16" s="1">
-        <v>-218.965000</v>
+        <v>-218.965</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>25783.826270</v>
+        <v>25783.826270000001</v>
       </c>
       <c r="L16" s="1">
-        <v>7.162174</v>
+        <v>7.1621740000000003</v>
       </c>
       <c r="M16" s="1">
-        <v>1193.240000</v>
+        <v>1193.24</v>
       </c>
       <c r="N16" s="1">
-        <v>-151.410000</v>
+        <v>-151.41</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>25793.780512</v>
+        <v>25793.780512000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>7.164939</v>
+        <v>7.1649390000000004</v>
       </c>
       <c r="R16" s="1">
-        <v>1201.030000</v>
+        <v>1201.03</v>
       </c>
       <c r="S16" s="1">
-        <v>-129.109000</v>
+        <v>-129.10900000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>25803.977267</v>
+        <v>25803.977266999998</v>
       </c>
       <c r="V16" s="1">
-        <v>7.167771</v>
+        <v>7.1677710000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1208.120000</v>
+        <v>1208.1199999999999</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.848000</v>
+        <v>-107.848</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>25814.165590</v>
+        <v>25814.165590000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>7.170602</v>
+        <v>7.1706019999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.362000</v>
+        <v>-90.361999999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>25824.330568</v>
+        <v>25824.330568000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>7.173425</v>
+        <v>7.1734249999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.546500</v>
+        <v>-85.546499999999995</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>25834.881962</v>
+        <v>25834.881961999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>7.176356</v>
+        <v>7.1763560000000002</v>
       </c>
       <c r="AL16" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.537200</v>
+        <v>-88.537199999999999</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>25845.320307</v>
+        <v>25845.320307000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>7.179256</v>
+        <v>7.1792559999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1234.610000</v>
+        <v>1234.6099999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>25856.785293</v>
+        <v>25856.785293000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>7.182440</v>
+        <v>7.1824399999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW16" s="1">
-        <v>-119.081000</v>
+        <v>-119.081</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>25868.116926</v>
+        <v>25868.116925999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>7.185588</v>
+        <v>7.1855880000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1252.660000</v>
+        <v>1252.6600000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-136.302000</v>
+        <v>-136.30199999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>25879.179168</v>
+        <v>25879.179167999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>7.188661</v>
+        <v>7.1886609999999997</v>
       </c>
       <c r="BF16" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG16" s="1">
-        <v>-217.019000</v>
+        <v>-217.01900000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>25890.218626</v>
+        <v>25890.218626000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>7.191727</v>
+        <v>7.1917270000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1360.520000</v>
+        <v>1360.52</v>
       </c>
       <c r="BL16" s="1">
-        <v>-351.497000</v>
+        <v>-351.49700000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>25900.968459</v>
       </c>
       <c r="BO16" s="1">
-        <v>7.194713</v>
+        <v>7.1947130000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-570.594000</v>
+        <v>-570.59400000000005</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>25911.880404</v>
       </c>
       <c r="BT16" s="1">
-        <v>7.197745</v>
+        <v>7.1977450000000003</v>
       </c>
       <c r="BU16" s="1">
-        <v>1602.810000</v>
+        <v>1602.81</v>
       </c>
       <c r="BV16" s="1">
-        <v>-818.280000</v>
+        <v>-818.28</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>25923.078118</v>
+        <v>25923.078118000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>7.200855</v>
+        <v>7.2008549999999998</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1751.540000</v>
+        <v>1751.54</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1088.060000</v>
+        <v>-1088.06</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>25935.587685</v>
+        <v>25935.587684999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>7.204330</v>
+        <v>7.2043299999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>2162.030000</v>
+        <v>2162.0300000000002</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1742.640000</v>
+        <v>-1742.64</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
         <v>25762.952137</v>
       </c>
       <c r="B17" s="1">
-        <v>7.156376</v>
+        <v>7.1563759999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1143.960000</v>
+        <v>1143.96</v>
       </c>
       <c r="D17" s="1">
-        <v>-260.893000</v>
+        <v>-260.89299999999997</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>25773.368619</v>
+        <v>25773.368619000001</v>
       </c>
       <c r="G17" s="1">
-        <v>7.159269</v>
+        <v>7.1592690000000001</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.800000</v>
+        <v>1165.8</v>
       </c>
       <c r="I17" s="1">
-        <v>-218.733000</v>
+        <v>-218.733</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>25784.240461</v>
+        <v>25784.240461000001</v>
       </c>
       <c r="L17" s="1">
-        <v>7.162289</v>
+        <v>7.1622890000000003</v>
       </c>
       <c r="M17" s="1">
-        <v>1193.470000</v>
+        <v>1193.47</v>
       </c>
       <c r="N17" s="1">
-        <v>-151.935000</v>
+        <v>-151.935</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>25794.065680</v>
+        <v>25794.06568</v>
       </c>
       <c r="Q17" s="1">
-        <v>7.165018</v>
+        <v>7.1650179999999999</v>
       </c>
       <c r="R17" s="1">
-        <v>1201.080000</v>
+        <v>1201.08</v>
       </c>
       <c r="S17" s="1">
-        <v>-129.099000</v>
+        <v>-129.09899999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>25804.270372</v>
+        <v>25804.270371999999</v>
       </c>
       <c r="V17" s="1">
         <v>7.167853</v>
       </c>
       <c r="W17" s="1">
-        <v>1208.170000</v>
+        <v>1208.17</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.856000</v>
+        <v>-107.85599999999999</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>25814.516231</v>
+        <v>25814.516231000001</v>
       </c>
       <c r="AA17" s="1">
-        <v>7.170699</v>
+        <v>7.1706989999999999</v>
       </c>
       <c r="AB17" s="1">
-        <v>1215.500000</v>
+        <v>1215.5</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.383800</v>
+        <v>-90.383799999999994</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>25824.673305</v>
       </c>
       <c r="AF17" s="1">
-        <v>7.173520</v>
+        <v>7.1735199999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.586600</v>
+        <v>-85.586600000000004</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>25835.231349</v>
+        <v>25835.231349000002</v>
       </c>
       <c r="AK17" s="1">
-        <v>7.176453</v>
+        <v>7.1764530000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.555000</v>
+        <v>-88.555000000000007</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>25845.679868</v>
+        <v>25845.679867999999</v>
       </c>
       <c r="AP17" s="1">
-        <v>7.179356</v>
+        <v>7.1793560000000003</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.150000</v>
+        <v>-100.15</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>25857.515438</v>
+        <v>25857.515437999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>7.182643</v>
+        <v>7.1826429999999997</v>
       </c>
       <c r="AV17" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-119.106000</v>
+        <v>-119.10599999999999</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>25868.504797</v>
+        <v>25868.504797000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>7.185696</v>
+        <v>7.1856960000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-136.280000</v>
+        <v>-136.28</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
         <v>25879.565551</v>
       </c>
       <c r="BE17" s="1">
-        <v>7.188768</v>
+        <v>7.1887679999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1292.080000</v>
+        <v>1292.08</v>
       </c>
       <c r="BG17" s="1">
-        <v>-216.997000</v>
+        <v>-216.99700000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>25890.593637</v>
+        <v>25890.593637000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>7.191832</v>
+        <v>7.1918319999999998</v>
       </c>
       <c r="BK17" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-351.463000</v>
+        <v>-351.46300000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>25901.390514</v>
+        <v>25901.390513999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>7.194831</v>
+        <v>7.1948309999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1472.770000</v>
+        <v>1472.77</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-570.605000</v>
+        <v>-570.60500000000002</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>25912.614483</v>
+        <v>25912.614483000001</v>
       </c>
       <c r="BT17" s="1">
-        <v>7.197948</v>
+        <v>7.1979480000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1602.680000</v>
+        <v>1602.68</v>
       </c>
       <c r="BV17" s="1">
-        <v>-818.145000</v>
+        <v>-818.14499999999998</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>25923.239285</v>
       </c>
       <c r="BY17" s="1">
-        <v>7.200900</v>
+        <v>7.2008999999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1751.630000</v>
+        <v>1751.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1088.200000</v>
+        <v>-1088.2</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>25935.826294</v>
+        <v>25935.826293999999</v>
       </c>
       <c r="CD17" s="1">
         <v>7.204396</v>
       </c>
       <c r="CE17" s="1">
-        <v>2162.240000</v>
+        <v>2162.2399999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1742.570000</v>
+        <v>-1742.57</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>25763.363321</v>
+        <v>25763.363321000001</v>
       </c>
       <c r="B18" s="1">
-        <v>7.156490</v>
+        <v>7.1564899999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>1143.790000</v>
+        <v>1143.79</v>
       </c>
       <c r="D18" s="1">
-        <v>-261.331000</v>
+        <v>-261.33100000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>25773.780299</v>
+        <v>25773.780298999998</v>
       </c>
       <c r="G18" s="1">
-        <v>7.159383</v>
+        <v>7.1593830000000001</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.970000</v>
+        <v>1165.97</v>
       </c>
       <c r="I18" s="1">
-        <v>-218.532000</v>
+        <v>-218.53200000000001</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>25784.535847</v>
+        <v>25784.535846999999</v>
       </c>
       <c r="L18" s="1">
-        <v>7.162371</v>
+        <v>7.1623710000000003</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.420000</v>
+        <v>1193.42</v>
       </c>
       <c r="N18" s="1">
-        <v>-152.001000</v>
+        <v>-152.001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>25794.411919</v>
+        <v>25794.411918999998</v>
       </c>
       <c r="Q18" s="1">
         <v>7.165114</v>
       </c>
       <c r="R18" s="1">
-        <v>1201.070000</v>
+        <v>1201.07</v>
       </c>
       <c r="S18" s="1">
-        <v>-129.097000</v>
+        <v>-129.09700000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>25804.611619</v>
+        <v>25804.611618999999</v>
       </c>
       <c r="V18" s="1">
         <v>7.167948</v>
       </c>
       <c r="W18" s="1">
-        <v>1208.180000</v>
+        <v>1208.18</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.840000</v>
+        <v>-107.84</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>25814.863461</v>
+        <v>25814.863461000001</v>
       </c>
       <c r="AA18" s="1">
         <v>7.170795</v>
       </c>
       <c r="AB18" s="1">
-        <v>1215.420000</v>
+        <v>1215.42</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.306700</v>
+        <v>-90.306700000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>25825.016535</v>
+        <v>25825.016534999999</v>
       </c>
       <c r="AF18" s="1">
         <v>7.173616</v>
       </c>
       <c r="AG18" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.575100</v>
+        <v>-85.575100000000006</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>25835.927032</v>
       </c>
       <c r="AK18" s="1">
-        <v>7.176646</v>
+        <v>7.1766459999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.576300</v>
+        <v>-88.576300000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>25846.411468</v>
+        <v>25846.411467999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>7.179559</v>
+        <v>7.1795590000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1234.620000</v>
+        <v>1234.6199999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.148000</v>
+        <v>-100.148</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>25857.903771</v>
+        <v>25857.903771000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>7.182751</v>
+        <v>7.1827509999999997</v>
       </c>
       <c r="AV18" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW18" s="1">
-        <v>-119.072000</v>
+        <v>-119.072</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>25868.886718</v>
+        <v>25868.886718000002</v>
       </c>
       <c r="AZ18" s="1">
-        <v>7.185802</v>
+        <v>7.1858019999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-136.271000</v>
+        <v>-136.27099999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>25879.927440</v>
+        <v>25879.927439999999</v>
       </c>
       <c r="BE18" s="1">
-        <v>7.188869</v>
+        <v>7.1888690000000004</v>
       </c>
       <c r="BF18" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG18" s="1">
-        <v>-217.016000</v>
+        <v>-217.01599999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>25891.270639</v>
+        <v>25891.270638999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>7.192020</v>
+        <v>7.1920200000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1360.540000</v>
+        <v>1360.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-351.481000</v>
+        <v>-351.48099999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>25902.084915</v>
+        <v>25902.084914999999</v>
       </c>
       <c r="BO18" s="1">
-        <v>7.195024</v>
+        <v>7.1950240000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-570.608000</v>
+        <v>-570.60799999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>25912.736996</v>
       </c>
       <c r="BT18" s="1">
-        <v>7.197982</v>
+        <v>7.1979819999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1602.690000</v>
+        <v>1602.69</v>
       </c>
       <c r="BV18" s="1">
-        <v>-818.021000</v>
+        <v>-818.02099999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>25923.665350</v>
+        <v>25923.665349999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>7.201018</v>
+        <v>7.2010180000000004</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1751.600000</v>
+        <v>1751.6</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1088.120000</v>
+        <v>-1088.1199999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>25936.346101</v>
+        <v>25936.346100999999</v>
       </c>
       <c r="CD18" s="1">
-        <v>7.204541</v>
+        <v>7.2045409999999999</v>
       </c>
       <c r="CE18" s="1">
-        <v>2161.660000</v>
+        <v>2161.66</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1744.430000</v>
+        <v>-1744.43</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>25763.647034</v>
+        <v>25763.647034000001</v>
       </c>
       <c r="B19" s="1">
-        <v>7.156569</v>
+        <v>7.1565690000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1143.910000</v>
+        <v>1143.9100000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-261.279000</v>
+        <v>-261.279</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>25774.406288</v>
+        <v>25774.406287999998</v>
       </c>
       <c r="G19" s="1">
-        <v>7.159557</v>
+        <v>7.1595570000000004</v>
       </c>
       <c r="H19" s="1">
-        <v>1165.720000</v>
+        <v>1165.72</v>
       </c>
       <c r="I19" s="1">
-        <v>-219.024000</v>
+        <v>-219.024</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>25784.882285</v>
       </c>
       <c r="L19" s="1">
-        <v>7.162467</v>
+        <v>7.1624670000000004</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.440000</v>
+        <v>1193.44</v>
       </c>
       <c r="N19" s="1">
-        <v>-151.808000</v>
+        <v>-151.80799999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>25794.759120</v>
+        <v>25794.759119999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>7.165211</v>
+        <v>7.1652110000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S19" s="1">
-        <v>-129.162000</v>
+        <v>-129.16200000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
         <v>25804.956371</v>
       </c>
       <c r="V19" s="1">
-        <v>7.168043</v>
+        <v>7.1680429999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>1208.360000</v>
+        <v>1208.3599999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.917000</v>
+        <v>-107.917</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>25815.562822</v>
       </c>
       <c r="AA19" s="1">
-        <v>7.170990</v>
+        <v>7.1709899999999998</v>
       </c>
       <c r="AB19" s="1">
-        <v>1215.350000</v>
+        <v>1215.3499999999999</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.231500</v>
+        <v>-90.231499999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>25825.703526</v>
+        <v>25825.703526000001</v>
       </c>
       <c r="AF19" s="1">
         <v>7.173807</v>
       </c>
       <c r="AG19" s="1">
-        <v>1219.960000</v>
+        <v>1219.96</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.559800</v>
+        <v>-85.559799999999996</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>25836.273240</v>
+        <v>25836.273239999999</v>
       </c>
       <c r="AK19" s="1">
-        <v>7.176743</v>
+        <v>7.1767430000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.562600</v>
+        <v>-88.562600000000003</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>25846.787434</v>
+        <v>25846.787434000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>7.179663</v>
+        <v>7.1796629999999997</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.137000</v>
+        <v>-100.137</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
         <v>25858.269323</v>
       </c>
       <c r="AU19" s="1">
-        <v>7.182853</v>
+        <v>7.1828529999999997</v>
       </c>
       <c r="AV19" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-119.083000</v>
+        <v>-119.083</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>25869.553340</v>
+        <v>25869.553339999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>7.185987</v>
+        <v>7.1859869999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-136.297000</v>
+        <v>-136.297</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
         <v>25880.591774</v>
       </c>
       <c r="BE19" s="1">
-        <v>7.189053</v>
+        <v>7.1890530000000004</v>
       </c>
       <c r="BF19" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG19" s="1">
-        <v>-217.028000</v>
+        <v>-217.02799999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>25891.718032</v>
+        <v>25891.718032000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>7.192144</v>
+        <v>7.1921439999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1360.580000</v>
+        <v>1360.58</v>
       </c>
       <c r="BL19" s="1">
-        <v>-351.482000</v>
+        <v>-351.48200000000003</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>25902.205441</v>
+        <v>25902.205440999998</v>
       </c>
       <c r="BO19" s="1">
-        <v>7.195057</v>
+        <v>7.1950570000000003</v>
       </c>
       <c r="BP19" s="1">
-        <v>1472.830000</v>
+        <v>1472.83</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-570.575000</v>
+        <v>-570.57500000000005</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>25913.149204</v>
+        <v>25913.149204000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>7.198097</v>
+        <v>7.1980969999999997</v>
       </c>
       <c r="BU19" s="1">
-        <v>1602.600000</v>
+        <v>1602.6</v>
       </c>
       <c r="BV19" s="1">
-        <v>-817.948000</v>
+        <v>-817.94799999999998</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>25924.081988</v>
+        <v>25924.081988000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>7.201134</v>
+        <v>7.2011339999999997</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1751.480000</v>
+        <v>1751.48</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1088.040000</v>
+        <v>-1088.04</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>25936.863891</v>
+        <v>25936.863891000001</v>
       </c>
       <c r="CD19" s="1">
-        <v>7.204684</v>
+        <v>7.2046840000000003</v>
       </c>
       <c r="CE19" s="1">
-        <v>2163.810000</v>
+        <v>2163.81</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1744.500000</v>
+        <v>-1744.5</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>25763.992281</v>
+        <v>25763.992280999999</v>
       </c>
       <c r="B20" s="1">
-        <v>7.156665</v>
+        <v>7.1566650000000003</v>
       </c>
       <c r="C20" s="1">
-        <v>1143.890000</v>
+        <v>1143.8900000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-260.887000</v>
+        <v>-260.887</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>25774.754939</v>
+        <v>25774.754938999999</v>
       </c>
       <c r="G20" s="1">
-        <v>7.159654</v>
+        <v>7.1596539999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>1165.450000</v>
+        <v>1165.45</v>
       </c>
       <c r="I20" s="1">
-        <v>-219.178000</v>
+        <v>-219.178</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>25785.225493</v>
+        <v>25785.225493000002</v>
       </c>
       <c r="L20" s="1">
-        <v>7.162563</v>
+        <v>7.1625629999999996</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.050000</v>
+        <v>1193.05</v>
       </c>
       <c r="N20" s="1">
-        <v>-151.808000</v>
+        <v>-151.80799999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>25795.457486</v>
+        <v>25795.457485999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>7.165405</v>
+        <v>7.1654049999999998</v>
       </c>
       <c r="R20" s="1">
-        <v>1200.960000</v>
+        <v>1200.96</v>
       </c>
       <c r="S20" s="1">
-        <v>-129.128000</v>
+        <v>-129.12799999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>25805.641844</v>
+        <v>25805.641844000002</v>
       </c>
       <c r="V20" s="1">
         <v>7.168234</v>
       </c>
       <c r="W20" s="1">
-        <v>1208.160000</v>
+        <v>1208.1600000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.835000</v>
+        <v>-107.83499999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>25815.908035</v>
       </c>
       <c r="AA20" s="1">
-        <v>7.171086</v>
+        <v>7.1710859999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>1215.610000</v>
+        <v>1215.6099999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.172100</v>
+        <v>-90.1721</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>25826.048214</v>
+        <v>25826.048213999999</v>
       </c>
       <c r="AF20" s="1">
         <v>7.173902</v>
       </c>
       <c r="AG20" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.589400</v>
+        <v>-85.589399999999998</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>25836.623912</v>
+        <v>25836.623911999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>7.176840</v>
+        <v>7.1768400000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1226.830000</v>
+        <v>1226.83</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.563300</v>
+        <v>-88.563299999999998</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>25847.863754</v>
+        <v>25847.863754000002</v>
       </c>
       <c r="AP20" s="1">
-        <v>7.179962</v>
+        <v>7.1799619999999997</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1234.610000</v>
+        <v>1234.6099999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.156000</v>
+        <v>-100.15600000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>25858.943387</v>
+        <v>25858.943386999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>7.183040</v>
+        <v>7.1830400000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW20" s="1">
-        <v>-119.098000</v>
+        <v>-119.098</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>25869.969949</v>
+        <v>25869.969948999998</v>
       </c>
       <c r="AZ20" s="1">
-        <v>7.186103</v>
+        <v>7.1861030000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB20" s="1">
-        <v>-136.301000</v>
+        <v>-136.30099999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>25881.048094</v>
+        <v>25881.048094000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>7.189180</v>
+        <v>7.1891800000000003</v>
       </c>
       <c r="BF20" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG20" s="1">
-        <v>-217.006000</v>
+        <v>-217.006</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>25892.094990</v>
+        <v>25892.094990000001</v>
       </c>
       <c r="BJ20" s="1">
-        <v>7.192249</v>
+        <v>7.1922490000000003</v>
       </c>
       <c r="BK20" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="BL20" s="1">
-        <v>-351.463000</v>
+        <v>-351.46300000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>25902.632039</v>
@@ -5302,43 +5718,43 @@
         <v>7.195176</v>
       </c>
       <c r="BP20" s="1">
-        <v>1472.840000</v>
+        <v>1472.84</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-570.564000</v>
+        <v>-570.56399999999996</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>25913.580226</v>
+        <v>25913.580225999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>7.198217</v>
+        <v>7.1982169999999996</v>
       </c>
       <c r="BU20" s="1">
-        <v>1602.510000</v>
+        <v>1602.51</v>
       </c>
       <c r="BV20" s="1">
-        <v>-817.873000</v>
+        <v>-817.87300000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>25924.529380</v>
+        <v>25924.52938</v>
       </c>
       <c r="BY20" s="1">
-        <v>7.201258</v>
+        <v>7.2012580000000002</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1751.650000</v>
+        <v>1751.65</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1088.250000</v>
+        <v>-1088.25</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>25937.381715</v>
@@ -5347,16 +5763,16 @@
         <v>7.204828</v>
       </c>
       <c r="CE20" s="1">
-        <v>2163.480000</v>
+        <v>2163.48</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1742.310000</v>
+        <v>-1742.31</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>25764.330521</v>
       </c>
@@ -5364,602 +5780,602 @@
         <v>7.156758</v>
       </c>
       <c r="C21" s="1">
-        <v>1143.790000</v>
+        <v>1143.79</v>
       </c>
       <c r="D21" s="1">
-        <v>-261.271000</v>
+        <v>-261.27100000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>25775.444376</v>
+        <v>25775.444375999999</v>
       </c>
       <c r="G21" s="1">
-        <v>7.159846</v>
+        <v>7.1598459999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.710000</v>
+        <v>1165.71</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.936000</v>
+        <v>-218.93600000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>25785.914427</v>
       </c>
       <c r="L21" s="1">
-        <v>7.162754</v>
+        <v>7.1627539999999996</v>
       </c>
       <c r="M21" s="1">
-        <v>1193.320000</v>
+        <v>1193.32</v>
       </c>
       <c r="N21" s="1">
-        <v>-151.907000</v>
+        <v>-151.90700000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>25795.804200</v>
+        <v>25795.804199999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>7.165501</v>
+        <v>7.1655009999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>1200.940000</v>
+        <v>1200.94</v>
       </c>
       <c r="S21" s="1">
-        <v>-129.059000</v>
+        <v>-129.059</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>25805.987059</v>
+        <v>25805.987058999999</v>
       </c>
       <c r="V21" s="1">
-        <v>7.168330</v>
+        <v>7.1683300000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1208.100000</v>
+        <v>1208.0999999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.703000</v>
+        <v>-107.703</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>25816.258227</v>
+        <v>25816.258226999998</v>
       </c>
       <c r="AA21" s="1">
-        <v>7.171183</v>
+        <v>7.1711830000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.350500</v>
+        <v>-90.350499999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>25826.387973</v>
+        <v>25826.387973000001</v>
       </c>
       <c r="AF21" s="1">
         <v>7.173997</v>
       </c>
       <c r="AG21" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.538900</v>
+        <v>-85.538899999999998</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>25837.282599</v>
+        <v>25837.282598999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>7.177023</v>
+        <v>7.1770230000000002</v>
       </c>
       <c r="AL21" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.574300</v>
+        <v>-88.574299999999994</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>25848.280394</v>
+        <v>25848.280394000001</v>
       </c>
       <c r="AP21" s="1">
         <v>7.180078</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.154000</v>
+        <v>-100.154</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
         <v>25859.396729</v>
       </c>
       <c r="AU21" s="1">
-        <v>7.183166</v>
+        <v>7.1831659999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1244.350000</v>
+        <v>1244.3499999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-119.089000</v>
+        <v>-119.089</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>25870.344787</v>
+        <v>25870.344787000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>7.186207</v>
+        <v>7.1862069999999996</v>
       </c>
       <c r="BA21" s="1">
-        <v>1252.660000</v>
+        <v>1252.6600000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-136.296000</v>
+        <v>-136.29599999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>25881.407693</v>
+        <v>25881.407693000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>7.189280</v>
+        <v>7.1892800000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1292.080000</v>
+        <v>1292.08</v>
       </c>
       <c r="BG21" s="1">
-        <v>-217.032000</v>
+        <v>-217.03200000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>25892.469008</v>
       </c>
       <c r="BJ21" s="1">
-        <v>7.192353</v>
+        <v>7.1923529999999998</v>
       </c>
       <c r="BK21" s="1">
-        <v>1360.540000</v>
+        <v>1360.54</v>
       </c>
       <c r="BL21" s="1">
-        <v>-351.496000</v>
+        <v>-351.49599999999998</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>25903.265392</v>
+        <v>25903.265392000001</v>
       </c>
       <c r="BO21" s="1">
-        <v>7.195351</v>
+        <v>7.1953509999999996</v>
       </c>
       <c r="BP21" s="1">
-        <v>1472.820000</v>
+        <v>1472.82</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-570.564000</v>
+        <v>-570.56399999999996</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
         <v>25914.008243</v>
       </c>
       <c r="BT21" s="1">
-        <v>7.198336</v>
+        <v>7.1983360000000003</v>
       </c>
       <c r="BU21" s="1">
-        <v>1602.300000</v>
+        <v>1602.3</v>
       </c>
       <c r="BV21" s="1">
-        <v>-817.900000</v>
+        <v>-817.9</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>25924.951507</v>
+        <v>25924.951507000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>7.201375</v>
+        <v>7.2013749999999996</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1751.690000</v>
+        <v>1751.69</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1088.090000</v>
+        <v>-1088.0899999999999</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>25937.902551</v>
+        <v>25937.902550999999</v>
       </c>
       <c r="CD21" s="1">
-        <v>7.204973</v>
+        <v>7.2049729999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>2163.650000</v>
+        <v>2163.65</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1742.430000</v>
+        <v>-1742.43</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>25765.014039</v>
+        <v>25765.014039000002</v>
       </c>
       <c r="B22" s="1">
-        <v>7.156948</v>
+        <v>7.1569479999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.000000</v>
+        <v>1144</v>
       </c>
       <c r="D22" s="1">
-        <v>-261.231000</v>
+        <v>-261.23099999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>25775.789096</v>
       </c>
       <c r="G22" s="1">
-        <v>7.159941</v>
+        <v>7.1599409999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.910000</v>
+        <v>1165.9100000000001</v>
       </c>
       <c r="I22" s="1">
-        <v>-218.563000</v>
+        <v>-218.56299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>25786.263611</v>
+        <v>25786.263610999998</v>
       </c>
       <c r="L22" s="1">
-        <v>7.162851</v>
+        <v>7.1628509999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1193.370000</v>
+        <v>1193.3699999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-151.484000</v>
+        <v>-151.48400000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>25796.155854</v>
+        <v>25796.155854000001</v>
       </c>
       <c r="Q22" s="1">
-        <v>7.165599</v>
+        <v>7.1655990000000003</v>
       </c>
       <c r="R22" s="1">
-        <v>1201.020000</v>
+        <v>1201.02</v>
       </c>
       <c r="S22" s="1">
-        <v>-129.094000</v>
+        <v>-129.09399999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>25806.331248</v>
+        <v>25806.331247999999</v>
       </c>
       <c r="V22" s="1">
         <v>7.168425</v>
       </c>
       <c r="W22" s="1">
-        <v>1208.090000</v>
+        <v>1208.0899999999999</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.851000</v>
+        <v>-107.851</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>25816.905458</v>
+        <v>25816.905458000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>7.171363</v>
+        <v>7.1713630000000004</v>
       </c>
       <c r="AB22" s="1">
-        <v>1215.490000</v>
+        <v>1215.49</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.323300</v>
+        <v>-90.323300000000003</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>25827.046661</v>
       </c>
       <c r="AF22" s="1">
-        <v>7.174180</v>
+        <v>7.1741799999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1219.940000</v>
+        <v>1219.94</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.563900</v>
+        <v>-85.563900000000004</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>25837.662552</v>
+        <v>25837.662552000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>7.177128</v>
+        <v>7.1771279999999997</v>
       </c>
       <c r="AL22" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.583200</v>
+        <v>-88.583200000000005</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>25848.641508</v>
+        <v>25848.641508000001</v>
       </c>
       <c r="AP22" s="1">
-        <v>7.180178</v>
+        <v>7.1801779999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1234.610000</v>
+        <v>1234.6099999999999</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.172000</v>
+        <v>-100.172</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>25859.758809</v>
+        <v>25859.758808999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>7.183266</v>
+        <v>7.1832659999999997</v>
       </c>
       <c r="AV22" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW22" s="1">
-        <v>-119.110000</v>
+        <v>-119.11</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>25870.723899</v>
+        <v>25870.723899000001</v>
       </c>
       <c r="AZ22" s="1">
         <v>7.186312</v>
       </c>
       <c r="BA22" s="1">
-        <v>1252.630000</v>
+        <v>1252.6300000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-136.270000</v>
+        <v>-136.27000000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>25881.769308</v>
+        <v>25881.769307999999</v>
       </c>
       <c r="BE22" s="1">
-        <v>7.189380</v>
+        <v>7.1893799999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1292.080000</v>
+        <v>1292.08</v>
       </c>
       <c r="BG22" s="1">
-        <v>-216.996000</v>
+        <v>-216.99600000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>25892.882638</v>
+        <v>25892.882637999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>7.192467</v>
+        <v>7.1924669999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1360.540000</v>
+        <v>1360.54</v>
       </c>
       <c r="BL22" s="1">
-        <v>-351.485000</v>
+        <v>-351.48500000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>25903.446463</v>
       </c>
       <c r="BO22" s="1">
-        <v>7.195402</v>
+        <v>7.1954019999999996</v>
       </c>
       <c r="BP22" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-570.647000</v>
+        <v>-570.64700000000005</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
         <v>25914.422401</v>
       </c>
       <c r="BT22" s="1">
-        <v>7.198451</v>
+        <v>7.1984510000000004</v>
       </c>
       <c r="BU22" s="1">
-        <v>1602.160000</v>
+        <v>1602.16</v>
       </c>
       <c r="BV22" s="1">
-        <v>-817.886000</v>
+        <v>-817.88599999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>25925.375586</v>
+        <v>25925.375585999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>7.201493</v>
+        <v>7.2014930000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1751.610000</v>
+        <v>1751.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1088.090000</v>
+        <v>-1088.0899999999999</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>25938.452083</v>
       </c>
       <c r="CD22" s="1">
-        <v>7.205126</v>
+        <v>7.2051259999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2164.120000</v>
+        <v>2164.12</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1744.300000</v>
+        <v>-1744.3</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>25765.358758</v>
+        <v>25765.358757999998</v>
       </c>
       <c r="B23" s="1">
         <v>7.157044</v>
       </c>
       <c r="C23" s="1">
-        <v>1143.790000</v>
+        <v>1143.79</v>
       </c>
       <c r="D23" s="1">
-        <v>-261.144000</v>
+        <v>-261.14400000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>25776.133816</v>
+        <v>25776.133816000001</v>
       </c>
       <c r="G23" s="1">
         <v>7.160037</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.670000</v>
+        <v>1165.67</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.652000</v>
+        <v>-218.65199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>25786.609323</v>
+        <v>25786.609323000001</v>
       </c>
       <c r="L23" s="1">
         <v>7.162947</v>
       </c>
       <c r="M23" s="1">
-        <v>1193.330000</v>
+        <v>1193.33</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.557000</v>
+        <v>-151.55699999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>25796.817485</v>
       </c>
       <c r="Q23" s="1">
-        <v>7.165783</v>
+        <v>7.1657830000000002</v>
       </c>
       <c r="R23" s="1">
-        <v>1201.080000</v>
+        <v>1201.08</v>
       </c>
       <c r="S23" s="1">
-        <v>-129.159000</v>
+        <v>-129.15899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>25806.991423</v>
+        <v>25806.991422999999</v>
       </c>
       <c r="V23" s="1">
         <v>7.168609</v>
       </c>
       <c r="W23" s="1">
-        <v>1208.260000</v>
+        <v>1208.26</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.812000</v>
+        <v>-107.812</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>25817.303249</v>
+        <v>25817.303249000001</v>
       </c>
       <c r="AA23" s="1">
-        <v>7.171473</v>
+        <v>7.1714729999999998</v>
       </c>
       <c r="AB23" s="1">
-        <v>1215.390000</v>
+        <v>1215.3900000000001</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.365200</v>
+        <v>-90.365200000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>25827.419157</v>
@@ -5968,210 +6384,210 @@
         <v>7.174283</v>
       </c>
       <c r="AG23" s="1">
-        <v>1219.930000</v>
+        <v>1219.93</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.596400</v>
+        <v>-85.596400000000003</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>25838.019158</v>
+        <v>25838.019157999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>7.177228</v>
+        <v>7.1772280000000004</v>
       </c>
       <c r="AL23" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.571800</v>
+        <v>-88.571799999999996</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>25849.003592</v>
+        <v>25849.003592000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>7.180279</v>
+        <v>7.1802789999999996</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1234.590000</v>
+        <v>1234.5899999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.143000</v>
+        <v>-100.143</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>25860.127864</v>
+        <v>25860.127863999998</v>
       </c>
       <c r="AU23" s="1">
-        <v>7.183369</v>
+        <v>7.1833689999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-119.090000</v>
+        <v>-119.09</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>25871.138026</v>
+        <v>25871.138026000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>7.186427</v>
+        <v>7.1864270000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-136.310000</v>
+        <v>-136.31</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>25882.195868</v>
+        <v>25882.195867999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>7.189499</v>
+        <v>7.1894989999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1292.040000</v>
+        <v>1292.04</v>
       </c>
       <c r="BG23" s="1">
-        <v>-217.006000</v>
+        <v>-217.006</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>25893.248221</v>
+        <v>25893.248221000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>7.192569</v>
+        <v>7.1925689999999998</v>
       </c>
       <c r="BK23" s="1">
-        <v>1360.510000</v>
+        <v>1360.51</v>
       </c>
       <c r="BL23" s="1">
-        <v>-351.500000</v>
+        <v>-351.5</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>25903.846208</v>
+        <v>25903.846207999999</v>
       </c>
       <c r="BO23" s="1">
         <v>7.195513</v>
       </c>
       <c r="BP23" s="1">
-        <v>1472.840000</v>
+        <v>1472.84</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-570.567000</v>
+        <v>-570.56700000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>25914.849954</v>
+        <v>25914.849954000001</v>
       </c>
       <c r="BT23" s="1">
         <v>7.198569</v>
       </c>
       <c r="BU23" s="1">
-        <v>1602.040000</v>
+        <v>1602.04</v>
       </c>
       <c r="BV23" s="1">
-        <v>-817.922000</v>
+        <v>-817.92200000000003</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>25925.820466</v>
+        <v>25925.820466000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>7.201617</v>
+        <v>7.2016169999999997</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1751.460000</v>
+        <v>1751.46</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1088.280000</v>
+        <v>-1088.28</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>25939.013056</v>
       </c>
       <c r="CD23" s="1">
-        <v>7.205281</v>
+        <v>7.2052810000000003</v>
       </c>
       <c r="CE23" s="1">
-        <v>2161.240000</v>
+        <v>2161.2399999999998</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1744.390000</v>
+        <v>-1744.39</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>25765.701493</v>
       </c>
       <c r="B24" s="1">
-        <v>7.157139</v>
+        <v>7.1571389999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.220000</v>
+        <v>1144.22</v>
       </c>
       <c r="D24" s="1">
-        <v>-261.392000</v>
+        <v>-261.392</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>25776.792999</v>
+        <v>25776.792999000001</v>
       </c>
       <c r="G24" s="1">
-        <v>7.160220</v>
+        <v>7.1602199999999998</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.330000</v>
+        <v>1165.33</v>
       </c>
       <c r="I24" s="1">
-        <v>-219.263000</v>
+        <v>-219.26300000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
         <v>25787.255146</v>
       </c>
       <c r="L24" s="1">
-        <v>7.163126</v>
+        <v>7.1631260000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1193.460000</v>
+        <v>1193.46</v>
       </c>
       <c r="N24" s="1">
-        <v>-151.450000</v>
+        <v>-151.44999999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
         <v>25797.201437</v>
@@ -6180,73 +6596,73 @@
         <v>7.165889</v>
       </c>
       <c r="R24" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="S24" s="1">
-        <v>-129.168000</v>
+        <v>-129.16800000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>25807.359455</v>
+        <v>25807.359455000002</v>
       </c>
       <c r="V24" s="1">
-        <v>7.168711</v>
+        <v>7.1687110000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>1208.230000</v>
+        <v>1208.23</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.796000</v>
+        <v>-107.79600000000001</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>25817.653467</v>
       </c>
       <c r="AA24" s="1">
-        <v>7.171570</v>
+        <v>7.17157</v>
       </c>
       <c r="AB24" s="1">
-        <v>1215.440000</v>
+        <v>1215.44</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.256400</v>
+        <v>-90.256399999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>25827.765364</v>
+        <v>25827.765363999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>7.174379</v>
+        <v>7.1743790000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1219.950000</v>
+        <v>1219.95</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.590000</v>
+        <v>-85.59</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>25838.367382</v>
       </c>
       <c r="AK24" s="1">
-        <v>7.177324</v>
+        <v>7.1773239999999996</v>
       </c>
       <c r="AL24" s="1">
-        <v>1226.840000</v>
+        <v>1226.8399999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.542200</v>
+        <v>-88.542199999999994</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>25849.426151</v>
@@ -6255,330 +6671,330 @@
         <v>7.180396</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.182000</v>
+        <v>-100.182</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>25860.545969</v>
+        <v>25860.545968999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>7.183485</v>
+        <v>7.1834850000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1244.370000</v>
+        <v>1244.3699999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-119.111000</v>
+        <v>-119.111</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>25871.440123</v>
       </c>
       <c r="AZ24" s="1">
-        <v>7.186511</v>
+        <v>7.1865110000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1252.640000</v>
+        <v>1252.6400000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-136.296000</v>
+        <v>-136.29599999999999</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>25882.490993</v>
+        <v>25882.490992999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>7.189581</v>
+        <v>7.1895810000000004</v>
       </c>
       <c r="BF24" s="1">
-        <v>1292.060000</v>
+        <v>1292.06</v>
       </c>
       <c r="BG24" s="1">
-        <v>-217.015000</v>
+        <v>-217.01499999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>25893.625148</v>
+        <v>25893.625147999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>7.192674</v>
+        <v>7.1926740000000002</v>
       </c>
       <c r="BK24" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL24" s="1">
-        <v>-351.485000</v>
+        <v>-351.48500000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>25904.268798</v>
+        <v>25904.268798000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>7.195630</v>
+        <v>7.1956300000000004</v>
       </c>
       <c r="BP24" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-570.619000</v>
+        <v>-570.61900000000003</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>25915.278992</v>
       </c>
       <c r="BT24" s="1">
-        <v>7.198689</v>
+        <v>7.1986889999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1602.010000</v>
+        <v>1602.01</v>
       </c>
       <c r="BV24" s="1">
-        <v>-817.982000</v>
+        <v>-817.98199999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>25926.254961</v>
+        <v>25926.254960999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>7.201737</v>
+        <v>7.2017369999999996</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1751.570000</v>
+        <v>1751.57</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1088.180000</v>
+        <v>-1088.18</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>25940.017951</v>
+        <v>25940.017951000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>7.205561</v>
+        <v>7.2055610000000003</v>
       </c>
       <c r="CE24" s="1">
-        <v>2162.780000</v>
+        <v>2162.7800000000002</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1742.280000</v>
+        <v>-1742.28</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>25766.340309</v>
+        <v>25766.340308999999</v>
       </c>
       <c r="B25" s="1">
-        <v>7.157317</v>
+        <v>7.1573169999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>1143.790000</v>
+        <v>1143.79</v>
       </c>
       <c r="D25" s="1">
-        <v>-261.440000</v>
+        <v>-261.44</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>25777.168982</v>
+        <v>25777.168981999999</v>
       </c>
       <c r="G25" s="1">
-        <v>7.160325</v>
+        <v>7.1603250000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1166.300000</v>
+        <v>1166.3</v>
       </c>
       <c r="I25" s="1">
-        <v>-219.104000</v>
+        <v>-219.10400000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>25787.646456</v>
+        <v>25787.646455999999</v>
       </c>
       <c r="L25" s="1">
-        <v>7.163235</v>
+        <v>7.1632350000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.270000</v>
+        <v>1193.27</v>
       </c>
       <c r="N25" s="1">
-        <v>-151.668000</v>
+        <v>-151.66800000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>25797.550076</v>
       </c>
       <c r="Q25" s="1">
-        <v>7.165986</v>
+        <v>7.1659860000000002</v>
       </c>
       <c r="R25" s="1">
-        <v>1201.030000</v>
+        <v>1201.03</v>
       </c>
       <c r="S25" s="1">
-        <v>-129.170000</v>
+        <v>-129.16999999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>25807.703183</v>
+        <v>25807.703183000001</v>
       </c>
       <c r="V25" s="1">
         <v>7.168806</v>
       </c>
       <c r="W25" s="1">
-        <v>1208.170000</v>
+        <v>1208.17</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.826000</v>
+        <v>-107.82599999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
         <v>25818.001643</v>
       </c>
       <c r="AA25" s="1">
-        <v>7.171667</v>
+        <v>7.1716670000000002</v>
       </c>
       <c r="AB25" s="1">
-        <v>1215.560000</v>
+        <v>1215.56</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.382400</v>
+        <v>-90.382400000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>25828.112597</v>
+        <v>25828.112596999999</v>
       </c>
       <c r="AF25" s="1">
-        <v>7.174476</v>
+        <v>7.1744760000000003</v>
       </c>
       <c r="AG25" s="1">
-        <v>1219.970000</v>
+        <v>1219.97</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.577900</v>
+        <v>-85.5779</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>25838.789941</v>
+        <v>25838.789940999999</v>
       </c>
       <c r="AK25" s="1">
-        <v>7.177442</v>
+        <v>7.1774420000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.550300</v>
+        <v>-88.550299999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>25849.722294</v>
+        <v>25849.722293999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>7.180478</v>
+        <v>7.1804779999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.167000</v>
+        <v>-100.167</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>25860.855960</v>
+        <v>25860.855960000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>7.183571</v>
+        <v>7.1835709999999997</v>
       </c>
       <c r="AV25" s="1">
-        <v>1244.340000</v>
+        <v>1244.3399999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-119.081000</v>
+        <v>-119.081</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>25871.800187</v>
+        <v>25871.800187000001</v>
       </c>
       <c r="AZ25" s="1">
-        <v>7.186611</v>
+        <v>7.1866110000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1252.650000</v>
+        <v>1252.6500000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-136.298000</v>
+        <v>-136.298</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>25882.851050</v>
+        <v>25882.851050000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>7.189681</v>
+        <v>7.1896810000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1292.070000</v>
+        <v>1292.07</v>
       </c>
       <c r="BG25" s="1">
-        <v>-216.995000</v>
+        <v>-216.995</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>25894.000124</v>
+        <v>25894.000123999998</v>
       </c>
       <c r="BJ25" s="1">
-        <v>7.192778</v>
+        <v>7.1927779999999997</v>
       </c>
       <c r="BK25" s="1">
-        <v>1360.550000</v>
+        <v>1360.55</v>
       </c>
       <c r="BL25" s="1">
-        <v>-351.469000</v>
+        <v>-351.46899999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>25905.083229</v>
@@ -6587,317 +7003,318 @@
         <v>7.195856</v>
       </c>
       <c r="BP25" s="1">
-        <v>1472.780000</v>
+        <v>1472.78</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-570.594000</v>
+        <v>-570.59400000000005</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>25915.690180</v>
+        <v>25915.690180000001</v>
       </c>
       <c r="BT25" s="1">
-        <v>7.198803</v>
+        <v>7.1988029999999998</v>
       </c>
       <c r="BU25" s="1">
-        <v>1601.940000</v>
+        <v>1601.94</v>
       </c>
       <c r="BV25" s="1">
-        <v>-817.976000</v>
+        <v>-817.976</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>25926.675570</v>
+        <v>25926.675569999999</v>
       </c>
       <c r="BY25" s="1">
         <v>7.201854</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1751.650000</v>
+        <v>1751.65</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1088.090000</v>
+        <v>-1088.0899999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>25940.550687</v>
+        <v>25940.550686999999</v>
       </c>
       <c r="CD25" s="1">
-        <v>7.205709</v>
+        <v>7.2057089999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>2161.080000</v>
+        <v>2161.08</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1744.130000</v>
+        <v>-1744.13</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>25766.727684</v>
+        <v>25766.727684000001</v>
       </c>
       <c r="B26" s="1">
-        <v>7.157424</v>
+        <v>7.1574239999999998</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.990000</v>
+        <v>1143.99</v>
       </c>
       <c r="D26" s="1">
-        <v>-261.208000</v>
+        <v>-261.20800000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>25777.512726</v>
+        <v>25777.512726000001</v>
       </c>
       <c r="G26" s="1">
-        <v>7.160420</v>
+        <v>7.1604200000000002</v>
       </c>
       <c r="H26" s="1">
-        <v>1165.540000</v>
+        <v>1165.54</v>
       </c>
       <c r="I26" s="1">
-        <v>-218.920000</v>
+        <v>-218.92</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>25787.993175</v>
       </c>
       <c r="L26" s="1">
-        <v>7.163331</v>
+        <v>7.1633310000000003</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.430000</v>
+        <v>1193.43</v>
       </c>
       <c r="N26" s="1">
-        <v>-151.717000</v>
+        <v>-151.71700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>25797.896315</v>
+        <v>25797.896315000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>7.166082</v>
+        <v>7.1660820000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>1201.000000</v>
+        <v>1201</v>
       </c>
       <c r="S26" s="1">
-        <v>-129.104000</v>
+        <v>-129.10400000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
         <v>25808.046414</v>
       </c>
       <c r="V26" s="1">
-        <v>7.168902</v>
+        <v>7.1689020000000001</v>
       </c>
       <c r="W26" s="1">
-        <v>1208.180000</v>
+        <v>1208.18</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.848000</v>
+        <v>-107.848</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>25818.430160</v>
+        <v>25818.43016</v>
       </c>
       <c r="AA26" s="1">
         <v>7.171786</v>
       </c>
       <c r="AB26" s="1">
-        <v>1215.480000</v>
+        <v>1215.48</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.281400</v>
+        <v>-90.281400000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>25828.523746</v>
+        <v>25828.523745999999</v>
       </c>
       <c r="AF26" s="1">
-        <v>7.174590</v>
+        <v>7.1745900000000002</v>
       </c>
       <c r="AG26" s="1">
-        <v>1219.910000</v>
+        <v>1219.9100000000001</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.583200</v>
+        <v>-85.583200000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>25839.067204</v>
+        <v>25839.067203999999</v>
       </c>
       <c r="AK26" s="1">
-        <v>7.177519</v>
+        <v>7.1775190000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1226.820000</v>
+        <v>1226.82</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.577300</v>
+        <v>-88.577299999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>25850.082854</v>
       </c>
       <c r="AP26" s="1">
-        <v>7.180579</v>
+        <v>7.1805789999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1234.600000</v>
+        <v>1234.5999999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.132000</v>
+        <v>-100.13200000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>25861.220546</v>
       </c>
       <c r="AU26" s="1">
-        <v>7.183672</v>
+        <v>7.1836719999999996</v>
       </c>
       <c r="AV26" s="1">
-        <v>1244.360000</v>
+        <v>1244.3599999999999</v>
       </c>
       <c r="AW26" s="1">
-        <v>-119.099000</v>
+        <v>-119.099</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>25872.159321</v>
+        <v>25872.159320999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>7.186711</v>
+        <v>7.1867109999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1252.620000</v>
+        <v>1252.6199999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-136.285000</v>
+        <v>-136.285</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>25883.212139</v>
+        <v>25883.212138999999</v>
       </c>
       <c r="BE26" s="1">
         <v>7.189781</v>
       </c>
       <c r="BF26" s="1">
-        <v>1292.050000</v>
+        <v>1292.05</v>
       </c>
       <c r="BG26" s="1">
-        <v>-216.989000</v>
+        <v>-216.989</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>25894.772902</v>
+        <v>25894.772902000001</v>
       </c>
       <c r="BJ26" s="1">
-        <v>7.192992</v>
+        <v>7.1929920000000003</v>
       </c>
       <c r="BK26" s="1">
-        <v>1360.580000</v>
+        <v>1360.58</v>
       </c>
       <c r="BL26" s="1">
-        <v>-351.540000</v>
+        <v>-351.54</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>25905.500861</v>
       </c>
       <c r="BO26" s="1">
-        <v>7.195972</v>
+        <v>7.1959720000000003</v>
       </c>
       <c r="BP26" s="1">
-        <v>1472.810000</v>
+        <v>1472.81</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-570.622000</v>
+        <v>-570.62199999999996</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>25916.122191</v>
+        <v>25916.122190999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>7.198923</v>
+        <v>7.1989229999999997</v>
       </c>
       <c r="BU26" s="1">
-        <v>1601.840000</v>
+        <v>1601.84</v>
       </c>
       <c r="BV26" s="1">
-        <v>-818.125000</v>
+        <v>-818.125</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>25927.095682</v>
+        <v>25927.095681999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>7.201971</v>
+        <v>7.2019710000000003</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1751.550000</v>
+        <v>1751.55</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1088.150000</v>
+        <v>-1088.1500000000001</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>25941.371048</v>
+        <v>25941.371048000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>7.205936</v>
+        <v>7.2059360000000003</v>
       </c>
       <c r="CE26" s="1">
-        <v>2163.290000</v>
+        <v>2163.29</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1745.170000</v>
+        <v>-1745.17</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>